--- a/Uploads/Data/COLL_DERMO_TEMPLATE.xlsx
+++ b/Uploads/Data/COLL_DERMO_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\SQL-Database-Corrections\Uploads\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60A2224-8C2D-443D-B564-B9EA400E600A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DA18C6-2BDF-49EA-BBA1-26B4412E9B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2108D022-863A-4DDA-9361-349A7F55884E}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5381" uniqueCount="626">
   <si>
     <t>DataStatus</t>
   </si>
@@ -2055,71 +2055,43 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="65">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2248,6 +2220,58 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2280,40 +2304,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:R81" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A8:R81" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
-  <tableColumns count="18">
-    <tableColumn id="20" xr3:uid="{FC1F9811-332A-4FBC-A60F-2ABD60672380}" name="DataType" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{144FE1A1-5D1F-48A8-B4E0-C6821BF0BD54}" name="Date" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{AFF01087-08D5-4CF6-9523-62D2D0BEBC6B}" name="Estuary" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{6EFE869E-928F-4DE4-A001-CBD4B74318C1}" name="SectionName" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2970053B-A957-48FC-A90D-21B578A4956B}" name="StationNumber" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{4C2D3540-8880-4E29-A792-D3848EAC3943}" name="SampleNumber" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{8B92EA8F-2DFF-4C65-939A-39D87C62433B}" name="ShellHeight" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{620D9B3D-3590-426D-98A8-F3E6F4F31A69}" name="ShellLength" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{6D5124A7-085C-4EFD-80B7-ACDC6F5DCA2D}" name="ShellWidth" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{8DE4E2E4-6B89-404B-B341-392732A23929}" name="TotalWeight" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{8A7E2DBF-7009-4418-AD75-A6D795044B02}" name="ShellWetWeight" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{9E8F1014-0499-4006-827C-D87998ADAA5A}" name="DermoMantle" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{6E33C8ED-077E-4B42-9794-69B75FB1EC5B}" name="DermoGill" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{F5327F91-F86A-4C2C-A3F7-57537D4418AD}" name="DataStatus" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{23A9EA71-7204-424A-A1C6-DD44A7137225}" name="DateEntered" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{59E70D4E-0FC7-43FD-854E-72E1A1B7CB06}" name="EnteredBy" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3F500D1F-D5A9-4367-AF08-9AE0878D48C4}" name="Comments" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{3CD401EF-CBAB-45C3-BCCC-5315251C9C37}" name="AdminNotes" dataDxfId="52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:T81" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A8:T81" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
+  <tableColumns count="20">
+    <tableColumn id="20" xr3:uid="{FC1F9811-332A-4FBC-A60F-2ABD60672380}" name="DataType" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{144FE1A1-5D1F-48A8-B4E0-C6821BF0BD54}" name="Date" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{AFF01087-08D5-4CF6-9523-62D2D0BEBC6B}" name="Estuary" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{6EFE869E-928F-4DE4-A001-CBD4B74318C1}" name="SectionName" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{2970053B-A957-48FC-A90D-21B578A4956B}" name="StationNumber" dataDxfId="58"/>
+    <tableColumn id="17" xr3:uid="{4C2D3540-8880-4E29-A792-D3848EAC3943}" name="SampleNumber" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{8B92EA8F-2DFF-4C65-939A-39D87C62433B}" name="ShellHeight" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{620D9B3D-3590-426D-98A8-F3E6F4F31A69}" name="ShellLength" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{6D5124A7-085C-4EFD-80B7-ACDC6F5DCA2D}" name="ShellWidth" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{8DE4E2E4-6B89-404B-B341-392732A23929}" name="TotalWeight" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{8A7E2DBF-7009-4418-AD75-A6D795044B02}" name="ShellWetWeight" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{9E8F1014-0499-4006-827C-D87998ADAA5A}" name="DermoMantle" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{6E33C8ED-077E-4B42-9794-69B75FB1EC5B}" name="DermoGill" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{F5327F91-F86A-4C2C-A3F7-57537D4418AD}" name="DataStatus" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{23A9EA71-7204-424A-A1C6-DD44A7137225}" name="DateEntered" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{59E70D4E-0FC7-43FD-854E-72E1A1B7CB06}" name="EnteredBy" dataDxfId="47"/>
+    <tableColumn id="19" xr3:uid="{F3BC6AB8-FF76-41EC-B752-A34FCB90FDB3}" name="DateProofed" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{383DF58B-68F3-4359-BEA0-4A3E20754F39}" name="ProofedBy" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{3F500D1F-D5A9-4367-AF08-9AE0878D48C4}" name="Comments" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{3CD401EF-CBAB-45C3-BCCC-5315251C9C37}" name="AdminNotes" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}" name="Table3" displayName="Table3" ref="B1:N74" totalsRowShown="0">
-  <autoFilter ref="B1:N74" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventID" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}" name="Table3" displayName="Table3" ref="B1:P74" totalsRowShown="0">
+  <autoFilter ref="B1:P74" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventID" dataDxfId="44">
       <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[SectionName]=Instructions!D9)*(Table1[StationNumber]=Instructions!E9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9F338ED6-22F6-4E24-AA7D-AC0F8BB69B23}" name="ShellHeight" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{9F338ED6-22F6-4E24-AA7D-AC0F8BB69B23}" name="ShellHeight" dataDxfId="43">
       <calculatedColumnFormula>Instructions!G9</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{BD967F3C-0D0C-4E5D-80F9-BD1C7E33A66B}" name="ShellLength">
@@ -2334,20 +2360,26 @@
     <tableColumn id="16" xr3:uid="{10241405-8D6A-42B5-8702-FB7153B5BBB9}" name="DermoGill">
       <calculatedColumnFormula>Instructions!M9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{095E345F-31E0-45E1-A75E-D26E3ADFCB1B}" name="DataStatus">
-      <calculatedColumnFormula>Instructions!N9</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{095E345F-31E0-45E1-A75E-D26E3ADFCB1B}" name="DataStatus" dataDxfId="1">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!N9),"",Instructions!N9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{58F892B1-7D00-4DB4-9264-0B45FFAD448B}" name="DateEntered">
-      <calculatedColumnFormula>Instructions!O9</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{58F892B1-7D00-4DB4-9264-0B45FFAD448B}" name="DateEntered" dataDxfId="5">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!O9),"",Instructions!O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{49D400BA-2D8E-449C-B429-4D906D77097B}" name="EnteredBy">
-      <calculatedColumnFormula>Instructions!P9</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{49D400BA-2D8E-449C-B429-4D906D77097B}" name="EnteredBy" dataDxfId="4">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!P9),"",Instructions!P9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{31CAB6D2-8900-4335-A113-FA44B7FC3BC8}" name="Comments">
-      <calculatedColumnFormula>Instructions!Q9</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{AFE53A7E-ADFD-45B7-91C8-ABF7AAF118ED}" name="DateProofed" dataDxfId="2">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!Q9),"",Instructions!Q9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B5ED7F1C-175A-40BD-A0D9-4AE0C22437C1}" name="AdminNotes" dataDxfId="49">
-      <calculatedColumnFormula>Instructions!R9</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{9D257618-1409-43E5-B511-606E0EAFAA43}" name="ProofedBy" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!R9),"",Instructions!R9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{31CAB6D2-8900-4335-A113-FA44B7FC3BC8}" name="Comments" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!S9),"",Instructions!S9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B5ED7F1C-175A-40BD-A0D9-4AE0C22437C1}" name="AdminNotes" dataDxfId="42">
+      <calculatedColumnFormula>Instructions!T9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2355,44 +2387,44 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}" name="Table1" displayName="Table1" ref="A1:AF175" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}" name="Table1" displayName="Table1" ref="A1:AF175" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:AF175" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P175">
     <sortCondition ref="A1:A175"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="16" xr3:uid="{61A67C99-3DC3-4EF1-8E9D-4DB22F375E4D}" name="FixedLocationID" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{23398500-7C71-4E68-AC5B-4128DED00607}" name="Estuary" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{22623896-B4D3-46E5-B16B-6F807267A906}" name="SectionName" dataDxfId="44"/>
-    <tableColumn id="1" xr3:uid="{CF8B1BF3-B6B7-4B01-989E-79E6F4B55D09}" name="StationName" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{266FCB90-B3B0-4EB7-8485-44F0794A400C}" name="StationNumber" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{AFB23EC9-14D9-4D70-89C7-BB7CEA80FD07}" name="ParcelName" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{B57A7EB2-6C51-42A1-ACB7-A7205AAB3F91}" name="ParcelArea" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{2C7AFD35-8437-4914-A8E0-A8484E310451}" name="CultchDensity" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{EAFB1F6A-47D9-4B23-827B-C8E89711F378}" name="LatitudeDec" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{8AC47069-6266-4BAC-896C-47A25D67B697}" name="LongitudeDec" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{0C1EBA66-B6C1-4FA5-A28E-C123C64BC674}" name="Recruitment" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{B41AA53E-13E1-49B5-8F9A-50A56B306108}" name="Survey" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{F455ED64-561D-4D37-AACD-F38D2471A77F}" name="Sediment" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{93D4A8C0-0BE8-4884-ADCC-D3A2E6DCF583}" name="Collections" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{3CDA8514-D4DC-4C2A-87C3-5B5727538DA8}" name="ShellBudget" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{D131D469-369A-432F-95FC-15FDC9DED726}" name="Dataloggers" dataDxfId="31"/>
-    <tableColumn id="20" xr3:uid="{F2AE2DD3-34CB-4D7A-B089-C58ABF9918BB}" name="Cage" dataDxfId="30"/>
-    <tableColumn id="21" xr3:uid="{0F2A07B3-E963-449A-9E92-F76C81AAF001}" name="Wave" dataDxfId="29"/>
-    <tableColumn id="22" xr3:uid="{ED629A94-88E6-4E28-A5DA-75F05065A7B9}" name="StartDate" dataDxfId="28"/>
-    <tableColumn id="23" xr3:uid="{48E28D9B-F5A1-48F3-A966-8BEC47D6BFC6}" name="EndDate" dataDxfId="27"/>
-    <tableColumn id="24" xr3:uid="{F0D30C63-87A0-4A31-95B8-CE0FB18EDBB8}" name="DataStatus" dataDxfId="26"/>
-    <tableColumn id="25" xr3:uid="{FDC9CE4F-7A5F-4139-B872-83CBF3DAB490}" name="DateEntered" dataDxfId="25"/>
-    <tableColumn id="26" xr3:uid="{34BC4C5F-8203-4441-B35A-4579EE7DBFD1}" name="EnteredBy" dataDxfId="24"/>
-    <tableColumn id="27" xr3:uid="{414C6AD9-7B8B-477A-A65B-F0BED14C708D}" name="DateProofed" dataDxfId="23"/>
-    <tableColumn id="28" xr3:uid="{B398EA49-5CF4-4D1C-A46D-526A3764E135}" name="ProofedBy" dataDxfId="22"/>
-    <tableColumn id="29" xr3:uid="{214A2D99-CBA5-4226-B426-CCFB3B603394}" name="DateCompleted" dataDxfId="21"/>
-    <tableColumn id="30" xr3:uid="{4AC0CCE6-4D50-46C9-AA6E-A737974E7FA0}" name="CompletedBy" dataDxfId="20"/>
-    <tableColumn id="31" xr3:uid="{F23DB5E6-D6D8-47E6-AD8C-781C08A98666}" name="Comments" dataDxfId="19"/>
-    <tableColumn id="32" xr3:uid="{78696E7B-45A6-41B1-B353-D0BC9F342E5D}" name="AdminNotes" dataDxfId="18"/>
-    <tableColumn id="33" xr3:uid="{1C34CCB0-6EDE-4B04-9CE8-4BB0B1365ADE}" name="StationNameNumber" dataDxfId="17"/>
-    <tableColumn id="34" xr3:uid="{C00DF76D-21B1-40FF-B568-AABD9E194D89}" name="EstuaryLongName" dataDxfId="16"/>
-    <tableColumn id="35" xr3:uid="{C6186EE9-EC39-43A3-8280-B81EB6E9FB93}" name="DateLastCultched" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{61A67C99-3DC3-4EF1-8E9D-4DB22F375E4D}" name="FixedLocationID" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{23398500-7C71-4E68-AC5B-4128DED00607}" name="Estuary" dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{22623896-B4D3-46E5-B16B-6F807267A906}" name="SectionName" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{CF8B1BF3-B6B7-4B01-989E-79E6F4B55D09}" name="StationName" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{266FCB90-B3B0-4EB7-8485-44F0794A400C}" name="StationNumber" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{AFB23EC9-14D9-4D70-89C7-BB7CEA80FD07}" name="ParcelName" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{B57A7EB2-6C51-42A1-ACB7-A7205AAB3F91}" name="ParcelArea" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{2C7AFD35-8437-4914-A8E0-A8484E310451}" name="CultchDensity" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{EAFB1F6A-47D9-4B23-827B-C8E89711F378}" name="LatitudeDec" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{8AC47069-6266-4BAC-896C-47A25D67B697}" name="LongitudeDec" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{0C1EBA66-B6C1-4FA5-A28E-C123C64BC674}" name="Recruitment" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{B41AA53E-13E1-49B5-8F9A-50A56B306108}" name="Survey" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{F455ED64-561D-4D37-AACD-F38D2471A77F}" name="Sediment" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{93D4A8C0-0BE8-4884-ADCC-D3A2E6DCF583}" name="Collections" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{3CDA8514-D4DC-4C2A-87C3-5B5727538DA8}" name="ShellBudget" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{D131D469-369A-432F-95FC-15FDC9DED726}" name="Dataloggers" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{F2AE2DD3-34CB-4D7A-B089-C58ABF9918BB}" name="Cage" dataDxfId="23"/>
+    <tableColumn id="21" xr3:uid="{0F2A07B3-E963-449A-9E92-F76C81AAF001}" name="Wave" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{ED629A94-88E6-4E28-A5DA-75F05065A7B9}" name="StartDate" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{48E28D9B-F5A1-48F3-A966-8BEC47D6BFC6}" name="EndDate" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{F0D30C63-87A0-4A31-95B8-CE0FB18EDBB8}" name="DataStatus" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{FDC9CE4F-7A5F-4139-B872-83CBF3DAB490}" name="DateEntered" dataDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{34BC4C5F-8203-4441-B35A-4579EE7DBFD1}" name="EnteredBy" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{414C6AD9-7B8B-477A-A65B-F0BED14C708D}" name="DateProofed" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{B398EA49-5CF4-4D1C-A46D-526A3764E135}" name="ProofedBy" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{214A2D99-CBA5-4226-B426-CCFB3B603394}" name="DateCompleted" dataDxfId="14"/>
+    <tableColumn id="30" xr3:uid="{4AC0CCE6-4D50-46C9-AA6E-A737974E7FA0}" name="CompletedBy" dataDxfId="13"/>
+    <tableColumn id="31" xr3:uid="{F23DB5E6-D6D8-47E6-AD8C-781C08A98666}" name="Comments" dataDxfId="12"/>
+    <tableColumn id="32" xr3:uid="{78696E7B-45A6-41B1-B353-D0BC9F342E5D}" name="AdminNotes" dataDxfId="11"/>
+    <tableColumn id="33" xr3:uid="{1C34CCB0-6EDE-4B04-9CE8-4BB0B1365ADE}" name="StationNameNumber" dataDxfId="10"/>
+    <tableColumn id="34" xr3:uid="{C00DF76D-21B1-40FF-B568-AABD9E194D89}" name="EstuaryLongName" dataDxfId="9"/>
+    <tableColumn id="35" xr3:uid="{C6186EE9-EC39-43A3-8280-B81EB6E9FB93}" name="DateLastCultched" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2715,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00D894D-DF5E-46E1-A945-092FA5E16BBD}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,20 +2763,20 @@
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="14" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -2753,62 +2785,62 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>366</v>
       </c>
@@ -2858,13 +2890,19 @@
         <v>2</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>537</v>
       </c>
@@ -2883,7 +2921,7 @@
       <c r="F9" s="2">
         <v>16</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="8">
         <v>32.9</v>
       </c>
       <c r="H9">
@@ -2914,11 +2952,13 @@
         <v>625</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>537</v>
       </c>
@@ -2967,14 +3007,16 @@
       <c r="P10" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>537</v>
       </c>
@@ -3024,11 +3066,13 @@
         <v>625</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>537</v>
       </c>
@@ -3053,7 +3097,7 @@
       <c r="H12">
         <v>25.39</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="8">
         <v>6.8</v>
       </c>
       <c r="J12">
@@ -3077,14 +3121,16 @@
       <c r="P12" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>537</v>
       </c>
@@ -3134,11 +3180,13 @@
         <v>625</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>537</v>
       </c>
@@ -3188,11 +3236,13 @@
         <v>625</v>
       </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>537</v>
       </c>
@@ -3217,7 +3267,7 @@
       <c r="H15">
         <v>19.89</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="8">
         <v>8.5</v>
       </c>
       <c r="J15">
@@ -3242,11 +3292,13 @@
         <v>625</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>537</v>
       </c>
@@ -3296,11 +3348,13 @@
         <v>625</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>537</v>
       </c>
@@ -3350,11 +3404,13 @@
         <v>625</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>537</v>
       </c>
@@ -3376,7 +3432,7 @@
       <c r="G18">
         <v>14.44</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="8">
         <v>12.9</v>
       </c>
       <c r="I18">
@@ -3403,14 +3459,16 @@
       <c r="P18" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>537</v>
       </c>
@@ -3460,11 +3518,13 @@
         <v>625</v>
       </c>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>537</v>
       </c>
@@ -3514,11 +3574,13 @@
         <v>625</v>
       </c>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>537</v>
       </c>
@@ -3568,11 +3630,13 @@
         <v>625</v>
       </c>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>537</v>
       </c>
@@ -3622,11 +3686,13 @@
         <v>625</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>537</v>
       </c>
@@ -3676,11 +3742,13 @@
         <v>625</v>
       </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>537</v>
       </c>
@@ -3730,11 +3798,13 @@
         <v>625</v>
       </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>537</v>
       </c>
@@ -3784,11 +3854,13 @@
         <v>625</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>537</v>
       </c>
@@ -3838,11 +3910,13 @@
         <v>625</v>
       </c>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>537</v>
       </c>
@@ -3892,11 +3966,13 @@
         <v>625</v>
       </c>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>537</v>
       </c>
@@ -3946,11 +4022,13 @@
         <v>625</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>537</v>
       </c>
@@ -4000,11 +4078,13 @@
         <v>625</v>
       </c>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>537</v>
       </c>
@@ -4035,7 +4115,7 @@
       <c r="J30">
         <v>3.58</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="8">
         <v>2.6</v>
       </c>
       <c r="L30" t="s">
@@ -4054,11 +4134,13 @@
         <v>625</v>
       </c>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>537</v>
       </c>
@@ -4089,7 +4171,7 @@
       <c r="J31">
         <v>7.85</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="8">
         <v>5.8</v>
       </c>
       <c r="L31" t="s">
@@ -4108,11 +4190,13 @@
         <v>625</v>
       </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>537</v>
       </c>
@@ -4162,11 +4246,13 @@
         <v>625</v>
       </c>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>537</v>
       </c>
@@ -4216,11 +4302,13 @@
         <v>625</v>
       </c>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>537</v>
       </c>
@@ -4269,14 +4357,16 @@
       <c r="P34" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>537</v>
       </c>
@@ -4295,19 +4385,19 @@
       <c r="F35" s="2">
         <v>42</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="8">
         <v>25.42</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="8">
         <v>22.74</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="8">
         <v>13.43</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="8">
         <v>5.37</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="8">
         <v>4.42</v>
       </c>
       <c r="L35" t="s">
@@ -4326,11 +4416,13 @@
         <v>625</v>
       </c>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>537</v>
       </c>
@@ -4349,19 +4441,19 @@
       <c r="F36" s="2">
         <v>43</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="8">
         <v>26.89</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="8">
         <v>28.11</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="8">
         <v>10.77</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="8">
         <v>4.6500000000000004</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="8">
         <v>3.4</v>
       </c>
       <c r="L36" t="s">
@@ -4380,11 +4472,13 @@
         <v>625</v>
       </c>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2" t="s">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>537</v>
       </c>
@@ -4403,19 +4497,19 @@
       <c r="F37" s="2">
         <v>44</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="8">
         <v>29.54</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="8">
         <v>17.66</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="8">
         <v>5.42</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="8">
         <v>2.77</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="8">
         <v>2.2799999999999998</v>
       </c>
       <c r="L37" t="s">
@@ -4434,11 +4528,13 @@
         <v>625</v>
       </c>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2" t="s">
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>537</v>
       </c>
@@ -4457,19 +4553,19 @@
       <c r="F38" s="2">
         <v>45</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="8">
         <v>37.479999999999997</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="8">
         <v>24.57</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="8">
         <v>10.26</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="8">
         <v>5.82</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="8">
         <v>4.18</v>
       </c>
       <c r="L38" t="s">
@@ -4488,11 +4584,13 @@
         <v>625</v>
       </c>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>537</v>
       </c>
@@ -4511,19 +4609,19 @@
       <c r="F39" s="2">
         <v>46</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="8">
         <v>30.25</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="8">
         <v>28.59</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="8">
         <v>11.47</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="8">
         <v>4.41</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="8">
         <v>3.39</v>
       </c>
       <c r="L39" t="s">
@@ -4542,11 +4640,13 @@
         <v>625</v>
       </c>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>537</v>
       </c>
@@ -4565,19 +4665,19 @@
       <c r="F40" s="2">
         <v>47</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="8">
         <v>19.48</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="8">
         <v>18.47</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="8">
         <v>12.82</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="8">
         <v>2.74</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="8">
         <v>2.1800000000000002</v>
       </c>
       <c r="L40" t="s">
@@ -4596,11 +4696,13 @@
         <v>625</v>
       </c>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2" t="s">
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>537</v>
       </c>
@@ -4619,19 +4721,19 @@
       <c r="F41" s="2">
         <v>48</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="8">
         <v>27.26</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="8">
         <v>16.260000000000002</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="8">
         <v>11.15</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="8">
         <v>2.96</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="8">
         <v>1.75</v>
       </c>
       <c r="L41" t="s">
@@ -4650,11 +4752,13 @@
         <v>625</v>
       </c>
       <c r="Q41" s="2"/>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>537</v>
       </c>
@@ -4673,19 +4777,19 @@
       <c r="F42" s="2">
         <v>49</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="8">
         <v>22.56</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="8">
         <v>17.98</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="8">
         <v>8.64</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="8">
         <v>1.75</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="8">
         <v>1.26</v>
       </c>
       <c r="L42" t="s">
@@ -4704,11 +4808,13 @@
         <v>625</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>537</v>
       </c>
@@ -4727,19 +4833,19 @@
       <c r="F43" s="2">
         <v>50</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="8">
         <v>16.63</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="8">
         <v>15.82</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="8">
         <v>9.2200000000000006</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="8">
         <v>1.49</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="8">
         <v>1.1599999999999999</v>
       </c>
       <c r="L43" t="s">
@@ -4757,14 +4863,16 @@
       <c r="P43" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>537</v>
       </c>
@@ -4783,19 +4891,19 @@
       <c r="F44" s="2">
         <v>16</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="9">
         <v>41.41</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="9">
         <v>39.58</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="9">
         <v>19.09</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="9">
         <v>18.989999999999998</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="9">
         <v>13.87</v>
       </c>
       <c r="L44" t="s">
@@ -4814,11 +4922,13 @@
         <v>625</v>
       </c>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2" t="s">
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>537</v>
       </c>
@@ -4837,19 +4947,19 @@
       <c r="F45" s="2">
         <v>17</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="9">
         <v>36.409999999999997</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="9">
         <v>34.28</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="9">
         <v>22.55</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="9">
         <v>15.99</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="9">
         <v>12.12</v>
       </c>
       <c r="L45" t="s">
@@ -4868,11 +4978,13 @@
         <v>625</v>
       </c>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2" t="s">
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>537</v>
       </c>
@@ -4891,19 +5003,19 @@
       <c r="F46" s="2">
         <v>18</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="9">
         <v>32.68</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="9">
         <v>30.04</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="9">
         <v>13.8</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="9">
         <v>10.220000000000001</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="L46" t="s">
@@ -4922,11 +5034,13 @@
         <v>625</v>
       </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2" t="s">
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>537</v>
       </c>
@@ -4945,19 +5059,19 @@
       <c r="F47" s="2">
         <v>19</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="9">
         <v>29.76</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="9">
         <v>31.56</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="9">
         <v>14.13</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="9">
         <v>7.47</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="9">
         <v>5.61</v>
       </c>
       <c r="L47" t="s">
@@ -4976,11 +5090,13 @@
         <v>625</v>
       </c>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>537</v>
       </c>
@@ -4999,19 +5115,19 @@
       <c r="F48" s="2">
         <v>20</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="9">
         <v>24.19</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="9">
         <v>24.49</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="9">
         <v>13.57</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="9">
         <v>5.64</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="9">
         <v>3.99</v>
       </c>
       <c r="L48" t="s">
@@ -5030,11 +5146,13 @@
         <v>625</v>
       </c>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2" t="s">
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>537</v>
       </c>
@@ -5053,19 +5171,19 @@
       <c r="F49" s="2">
         <v>21</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="9">
         <v>26.55</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="9">
         <v>17.989999999999998</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="9">
         <v>10.38</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="9">
         <v>3.9</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K49" s="9">
         <v>2.75</v>
       </c>
       <c r="L49" t="s">
@@ -5084,11 +5202,13 @@
         <v>625</v>
       </c>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2" t="s">
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>537</v>
       </c>
@@ -5107,19 +5227,19 @@
       <c r="F50" s="2">
         <v>22</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="9">
         <v>29.11</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="9">
         <v>20.2</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="9">
         <v>20.14</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="9">
         <v>7.77</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="9">
         <v>5.79</v>
       </c>
       <c r="L50" t="s">
@@ -5138,11 +5258,13 @@
         <v>625</v>
       </c>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2" t="s">
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>537</v>
       </c>
@@ -5161,19 +5283,19 @@
       <c r="F51" s="2">
         <v>23</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="9">
         <v>27.89</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="9">
         <v>24.9</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="9">
         <v>14.01</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="9">
         <v>4.41</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="9">
         <v>3.3</v>
       </c>
       <c r="L51" t="s">
@@ -5192,11 +5314,13 @@
         <v>625</v>
       </c>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2" t="s">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>537</v>
       </c>
@@ -5215,19 +5339,19 @@
       <c r="F52" s="2">
         <v>24</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="9">
         <v>26.38</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="9">
         <v>19.850000000000001</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="9">
         <v>11.94</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="9">
         <v>3.61</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="9">
         <v>2.5</v>
       </c>
       <c r="L52" t="s">
@@ -5246,11 +5370,13 @@
         <v>625</v>
       </c>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2" t="s">
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>537</v>
       </c>
@@ -5269,19 +5395,19 @@
       <c r="F53" s="2">
         <v>25</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="9">
         <v>18.940000000000001</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="9">
         <v>22.86</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="9">
         <v>10.55</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="9">
         <v>3.52</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="9">
         <v>2.04</v>
       </c>
       <c r="L53" t="s">
@@ -5300,11 +5426,13 @@
         <v>625</v>
       </c>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2" t="s">
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>537</v>
       </c>
@@ -5323,19 +5451,19 @@
       <c r="F54" s="2">
         <v>26</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="9">
         <v>19.5</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="9">
         <v>19.059999999999999</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="9">
         <v>10.16</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="9">
         <v>2.09</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="9">
         <v>1.51</v>
       </c>
       <c r="L54" t="s">
@@ -5354,11 +5482,13 @@
         <v>625</v>
       </c>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2" t="s">
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>537</v>
       </c>
@@ -5377,19 +5507,19 @@
       <c r="F55" s="2">
         <v>27</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="9">
         <v>18.02</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="9">
         <v>14.14</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="9">
         <v>6.24</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="9">
         <v>1.39</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="9">
         <v>1.1399999999999999</v>
       </c>
       <c r="L55" t="s">
@@ -5408,11 +5538,13 @@
         <v>625</v>
       </c>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2" t="s">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>537</v>
       </c>
@@ -5431,19 +5563,19 @@
       <c r="F56" s="2">
         <v>28</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="9">
         <v>42.02</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="9">
         <v>38.47</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="9">
         <v>27.24</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="9">
         <v>26.87</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="9">
         <v>16.16</v>
       </c>
       <c r="L56" t="s">
@@ -5462,11 +5594,13 @@
         <v>625</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2" t="s">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>537</v>
       </c>
@@ -5485,19 +5619,19 @@
       <c r="F57" s="2">
         <v>29</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="9">
         <v>37.18</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="9">
         <v>36.04</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="9">
         <v>10.07</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="9">
         <v>9.09</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="9">
         <v>6.25</v>
       </c>
       <c r="L57" t="s">
@@ -5516,11 +5650,13 @@
         <v>625</v>
       </c>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2" t="s">
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>537</v>
       </c>
@@ -5539,19 +5675,19 @@
       <c r="F58" s="2">
         <v>30</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="9">
         <v>37.159999999999997</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="9">
         <v>27.4</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="9">
         <v>17.47</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="9">
         <v>8.93</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K58" s="9">
         <v>6.53</v>
       </c>
       <c r="L58" t="s">
@@ -5570,11 +5706,13 @@
         <v>625</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2" t="s">
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>537</v>
       </c>
@@ -5593,19 +5731,19 @@
       <c r="F59" s="2">
         <v>31</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="9">
         <v>33.1</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="9">
         <v>27.28</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="9">
         <v>18.37</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="9">
         <v>12.2</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="9">
         <v>10.39</v>
       </c>
       <c r="L59" t="s">
@@ -5624,11 +5762,13 @@
         <v>625</v>
       </c>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2" t="s">
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>537</v>
       </c>
@@ -5647,19 +5787,19 @@
       <c r="F60" s="2">
         <v>32</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="9">
         <v>32.119999999999997</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="9">
         <v>22.4</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="9">
         <v>13.5</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="9">
         <v>7.59</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="9">
         <v>5.54</v>
       </c>
       <c r="L60" t="s">
@@ -5678,11 +5818,13 @@
         <v>625</v>
       </c>
       <c r="Q60" s="2"/>
-      <c r="R60" s="2" t="s">
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>537</v>
       </c>
@@ -5701,19 +5843,19 @@
       <c r="F61" s="2">
         <v>33</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="9">
         <v>25.28</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="9">
         <v>19.87</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="9">
         <v>12.25</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="9">
         <v>4.71</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="9">
         <v>3.2</v>
       </c>
       <c r="L61" t="s">
@@ -5732,11 +5874,13 @@
         <v>625</v>
       </c>
       <c r="Q61" s="2"/>
-      <c r="R61" s="2" t="s">
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>537</v>
       </c>
@@ -5755,19 +5899,19 @@
       <c r="F62" s="2">
         <v>34</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="9">
         <v>29.01</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="9">
         <v>21.56</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="9">
         <v>17.34</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="9">
         <v>7.42</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="9">
         <v>5.56</v>
       </c>
       <c r="L62" t="s">
@@ -5786,11 +5930,13 @@
         <v>625</v>
       </c>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2" t="s">
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>537</v>
       </c>
@@ -5809,19 +5955,19 @@
       <c r="F63" s="2">
         <v>35</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="9">
         <v>22.84</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="9">
         <v>21.22</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="9">
         <v>14.45</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="9">
         <v>4.5</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="9">
         <v>3.5</v>
       </c>
       <c r="L63" t="s">
@@ -5839,14 +5985,16 @@
       <c r="P63" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="T63" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>537</v>
       </c>
@@ -5865,19 +6013,19 @@
       <c r="F64" s="2">
         <v>36</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="9">
         <v>18.940000000000001</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="9">
         <v>16.16</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="9">
         <v>7.77</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="9">
         <v>2.3199999999999998</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="9">
         <v>1.89</v>
       </c>
       <c r="L64" t="s">
@@ -5896,11 +6044,13 @@
         <v>625</v>
       </c>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2" t="s">
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>537</v>
       </c>
@@ -5919,19 +6069,19 @@
       <c r="F65" s="2">
         <v>37</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="9">
         <v>19.38</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="9">
         <v>12.06</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="9">
         <v>7.84</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="9">
         <v>1.89</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K65" s="9">
         <v>1.52</v>
       </c>
       <c r="L65" t="s">
@@ -5950,11 +6100,13 @@
         <v>625</v>
       </c>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2" t="s">
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>537</v>
       </c>
@@ -5973,19 +6125,19 @@
       <c r="F66" s="2">
         <v>38</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="9">
         <v>18.47</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="9">
         <v>15.43</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="9">
         <v>6.89</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="9">
         <v>1.7</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="9">
         <v>1.35</v>
       </c>
       <c r="L66" t="s">
@@ -6004,11 +6156,13 @@
         <v>625</v>
       </c>
       <c r="Q66" s="2"/>
-      <c r="R66" s="2" t="s">
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>537</v>
       </c>
@@ -6027,19 +6181,19 @@
       <c r="F67" s="2">
         <v>39</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="9">
         <v>9.9700000000000006</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="9">
         <v>5.32</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="9">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K67" s="9">
         <v>0.05</v>
       </c>
       <c r="L67" t="s">
@@ -6057,14 +6211,16 @@
       <c r="P67" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="T67" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>537</v>
       </c>
@@ -6083,19 +6239,19 @@
       <c r="F68" s="2">
         <v>40</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="9">
         <v>11.57</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="9">
         <v>10.14</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="9">
         <v>2.57</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="9">
         <v>0.19</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="9">
         <v>0.11</v>
       </c>
       <c r="L68" t="s">
@@ -6113,14 +6269,16 @@
       <c r="P68" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="T68" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>537</v>
       </c>
@@ -6139,19 +6297,19 @@
       <c r="F69" s="2">
         <v>41</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="9">
         <v>40.49</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="9">
         <v>33.61</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="9">
         <v>16.579999999999998</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="9">
         <v>17.600000000000001</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="9">
         <v>14.64</v>
       </c>
       <c r="L69" t="s">
@@ -6170,11 +6328,13 @@
         <v>625</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2" t="s">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>537</v>
       </c>
@@ -6193,19 +6353,19 @@
       <c r="F70" s="2">
         <v>42</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="9">
         <v>36.700000000000003</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="9">
         <v>32.97</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="9">
         <v>18.71</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="9">
         <v>16.63</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K70" s="9">
         <v>13.42</v>
       </c>
       <c r="L70" t="s">
@@ -6224,11 +6384,13 @@
         <v>625</v>
       </c>
       <c r="Q70" s="2"/>
-      <c r="R70" s="2" t="s">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>537</v>
       </c>
@@ -6247,19 +6409,19 @@
       <c r="F71" s="2">
         <v>43</v>
       </c>
-      <c r="G71" s="15">
-        <v>33</v>
-      </c>
-      <c r="H71" s="15">
+      <c r="G71" s="9">
+        <v>33</v>
+      </c>
+      <c r="H71" s="9">
         <v>25.4</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="9">
         <v>14.25</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="9">
         <v>9.19</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="9">
         <v>7.08</v>
       </c>
       <c r="L71" t="s">
@@ -6278,11 +6440,13 @@
         <v>625</v>
       </c>
       <c r="Q71" s="2"/>
-      <c r="R71" s="2" t="s">
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>537</v>
       </c>
@@ -6301,19 +6465,19 @@
       <c r="F72" s="2">
         <v>44</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="9">
         <v>32.19</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="9">
         <v>26.23</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="9">
         <v>13.7</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="9">
         <v>6.85</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="9">
         <v>5.69</v>
       </c>
       <c r="L72" t="s">
@@ -6332,11 +6496,13 @@
         <v>625</v>
       </c>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2" t="s">
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>537</v>
       </c>
@@ -6355,19 +6521,19 @@
       <c r="F73" s="2">
         <v>45</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="9">
         <v>25.59</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="9">
         <v>24.26</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="9">
         <v>14.34</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="9">
         <v>7.4</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K73" s="9">
         <v>5.44</v>
       </c>
       <c r="L73" t="s">
@@ -6386,11 +6552,13 @@
         <v>625</v>
       </c>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2" t="s">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>537</v>
       </c>
@@ -6409,19 +6577,19 @@
       <c r="F74" s="2">
         <v>46</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="9">
         <v>29.69</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="9">
         <v>23.02</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="9">
         <v>11.74</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="9">
         <v>5.12</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K74" s="9">
         <v>3.79</v>
       </c>
       <c r="L74" t="s">
@@ -6440,11 +6608,13 @@
         <v>625</v>
       </c>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>537</v>
       </c>
@@ -6463,19 +6633,19 @@
       <c r="F75" s="2">
         <v>47</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="9">
         <v>28.54</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="9">
         <v>26.99</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="9">
         <v>16.52</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J75" s="9">
         <v>5.72</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K75" s="9">
         <v>4.54</v>
       </c>
       <c r="L75" t="s">
@@ -6494,11 +6664,13 @@
         <v>625</v>
       </c>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>537</v>
       </c>
@@ -6517,19 +6689,19 @@
       <c r="F76" s="2">
         <v>48</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="9">
         <v>24.66</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="9">
         <v>22.98</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="9">
         <v>9.8800000000000008</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="9">
         <v>4.03</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="9">
         <v>3.29</v>
       </c>
       <c r="L76" t="s">
@@ -6548,11 +6720,13 @@
         <v>625</v>
       </c>
       <c r="Q76" s="2"/>
-      <c r="R76" s="2" t="s">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>537</v>
       </c>
@@ -6571,19 +6745,19 @@
       <c r="F77" s="2">
         <v>49</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="9">
         <v>24.51</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="9">
         <v>18.88</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="9">
         <v>11.9</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J77" s="9">
         <v>3.34</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K77" s="9">
         <v>2.4700000000000002</v>
       </c>
       <c r="L77" t="s">
@@ -6602,11 +6776,13 @@
         <v>625</v>
       </c>
       <c r="Q77" s="2"/>
-      <c r="R77" s="2" t="s">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>537</v>
       </c>
@@ -6625,19 +6801,19 @@
       <c r="F78" s="2">
         <v>50</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="9">
         <v>25.76</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="9">
         <v>14.18</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="9">
         <v>14.31</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="9">
         <v>3.14</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K78" s="9">
         <v>2.56</v>
       </c>
       <c r="L78" t="s">
@@ -6656,11 +6832,13 @@
         <v>625</v>
       </c>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2" t="s">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>537</v>
       </c>
@@ -6679,19 +6857,19 @@
       <c r="F79" s="2">
         <v>51</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="9">
         <v>19.29</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="9">
         <v>16.97</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I79" s="9">
         <v>6.83</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J79" s="9">
         <v>1.82</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K79" s="9">
         <v>1.4</v>
       </c>
       <c r="L79" t="s">
@@ -6709,14 +6887,16 @@
       <c r="P79" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>537</v>
       </c>
@@ -6735,19 +6915,19 @@
       <c r="F80" s="2">
         <v>52</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="9">
         <v>20.13</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="9">
         <v>12.67</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="9">
         <v>9.42</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="9">
         <v>1.76</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K80" s="9">
         <v>1.34</v>
       </c>
       <c r="L80" t="s">
@@ -6765,14 +6945,16 @@
       <c r="P80" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>537</v>
       </c>
@@ -6791,19 +6973,19 @@
       <c r="F81" s="2">
         <v>53</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="9">
         <v>12.41</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="9">
         <v>12.8</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="9">
         <v>5.64</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J81" s="9">
         <v>0.72</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K81" s="9">
         <v>0.52</v>
       </c>
       <c r="L81" t="s">
@@ -6821,10 +7003,12 @@
       <c r="P81" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q81" s="2" t="s">
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R81" s="2" t="s">
+      <c r="T81" s="2" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6847,10 +7031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67E62C5-4E8D-49D3-846A-7389286C002D}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N74"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6867,11 +7051,12 @@
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>536</v>
       </c>
@@ -6909,13 +7094,19 @@
         <v>2</v>
       </c>
       <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(Instructions!C9,Instructions!D9,"D",TEXT(Instructions!B9,"YY"),TEXT(Instructions!B9,"MM"),"-",TEXT(Instructions!F9,"00"))</f>
         <v>LXND2504-16</v>
@@ -6952,28 +7143,36 @@
         <f>Instructions!M9</f>
         <v>NULL</v>
       </c>
-      <c r="J2" t="str">
-        <f>Instructions!N9</f>
+      <c r="J2" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N9),"",Instructions!N9)</f>
         <v>Proofed</v>
       </c>
       <c r="K2" s="1">
-        <f>Instructions!O9</f>
+        <f>IF(ISBLANK(Instructions!O9),"",Instructions!O9)</f>
         <v>45771</v>
       </c>
       <c r="L2" t="str">
-        <f>Instructions!P9</f>
+        <f>IF(ISBLANK(Instructions!P9),"",Instructions!P9)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M2">
-        <f>Instructions!Q9</f>
-        <v>0</v>
+      <c r="M2" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q9),"",Instructions!Q9)</f>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <f>Instructions!R9</f>
+        <f>IF(ISBLANK(Instructions!R9),"",Instructions!R9)</f>
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(ISBLANK(Instructions!S9),"",Instructions!S9)</f>
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <f>Instructions!T9</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xlfn.CONCAT(Instructions!C10,Instructions!D10,"D",TEXT(Instructions!B10,"YY"),TEXT(Instructions!B10,"MM"),"-",TEXT(Instructions!F10,"00"))</f>
         <v>LXND2504-17</v>
@@ -7010,28 +7209,36 @@
         <f>Instructions!M10</f>
         <v>NULL</v>
       </c>
-      <c r="J3" t="str">
-        <f>Instructions!N10</f>
+      <c r="J3" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N10),"",Instructions!N10)</f>
         <v>Proofed</v>
       </c>
       <c r="K3" s="1">
-        <f>Instructions!O10</f>
+        <f>IF(ISBLANK(Instructions!O10),"",Instructions!O10)</f>
         <v>45771</v>
       </c>
       <c r="L3" t="str">
-        <f>Instructions!P10</f>
+        <f>IF(ISBLANK(Instructions!P10),"",Instructions!P10)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M3" t="str">
-        <f>Instructions!Q10</f>
+      <c r="M3" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q10),"",Instructions!Q10)</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(ISBLANK(Instructions!R10),"",Instructions!R10)</f>
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <f>IF(ISBLANK(Instructions!S10),"",Instructions!S10)</f>
         <v>pea crab 0.26</v>
       </c>
-      <c r="N3" t="str">
-        <f>Instructions!R10</f>
+      <c r="P3" t="str">
+        <f>Instructions!T10</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>_xlfn.CONCAT(Instructions!C11,Instructions!D11,"D",TEXT(Instructions!B11,"YY"),TEXT(Instructions!B11,"MM"),"-",TEXT(Instructions!F11,"00"))</f>
         <v>LXND2504-18</v>
@@ -7068,28 +7275,36 @@
         <f>Instructions!M11</f>
         <v>NULL</v>
       </c>
-      <c r="J4" t="str">
-        <f>Instructions!N11</f>
+      <c r="J4" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N11),"",Instructions!N11)</f>
         <v>Proofed</v>
       </c>
       <c r="K4" s="1">
-        <f>Instructions!O11</f>
+        <f>IF(ISBLANK(Instructions!O11),"",Instructions!O11)</f>
         <v>45771</v>
       </c>
       <c r="L4" t="str">
-        <f>Instructions!P11</f>
+        <f>IF(ISBLANK(Instructions!P11),"",Instructions!P11)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M4">
-        <f>Instructions!Q11</f>
-        <v>0</v>
+      <c r="M4" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q11),"",Instructions!Q11)</f>
+        <v/>
       </c>
       <c r="N4" t="str">
-        <f>Instructions!R11</f>
+        <f>IF(ISBLANK(Instructions!R11),"",Instructions!R11)</f>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(ISBLANK(Instructions!S11),"",Instructions!S11)</f>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <f>Instructions!T11</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT(Instructions!C12,Instructions!D12,"D",TEXT(Instructions!B12,"YY"),TEXT(Instructions!B12,"MM"),"-",TEXT(Instructions!F12,"00"))</f>
         <v>LXND2504-19</v>
@@ -7126,28 +7341,36 @@
         <f>Instructions!M12</f>
         <v>NULL</v>
       </c>
-      <c r="J5" t="str">
-        <f>Instructions!N12</f>
+      <c r="J5" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N12),"",Instructions!N12)</f>
         <v>Proofed</v>
       </c>
       <c r="K5" s="1">
-        <f>Instructions!O12</f>
+        <f>IF(ISBLANK(Instructions!O12),"",Instructions!O12)</f>
         <v>45771</v>
       </c>
       <c r="L5" t="str">
-        <f>Instructions!P12</f>
+        <f>IF(ISBLANK(Instructions!P12),"",Instructions!P12)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M5" t="str">
-        <f>Instructions!Q12</f>
+      <c r="M5" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q12),"",Instructions!Q12)</f>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(ISBLANK(Instructions!R12),"",Instructions!R12)</f>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(ISBLANK(Instructions!S12),"",Instructions!S12)</f>
         <v>full body repro</v>
       </c>
-      <c r="N5" t="str">
-        <f>Instructions!R12</f>
+      <c r="P5" t="str">
+        <f>Instructions!T12</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT(Instructions!C13,Instructions!D13,"D",TEXT(Instructions!B13,"YY"),TEXT(Instructions!B13,"MM"),"-",TEXT(Instructions!F13,"00"))</f>
         <v>LXND2504-20</v>
@@ -7184,28 +7407,36 @@
         <f>Instructions!M13</f>
         <v>NULL</v>
       </c>
-      <c r="J6" t="str">
-        <f>Instructions!N13</f>
+      <c r="J6" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N13),"",Instructions!N13)</f>
         <v>Proofed</v>
       </c>
       <c r="K6" s="1">
-        <f>Instructions!O13</f>
+        <f>IF(ISBLANK(Instructions!O13),"",Instructions!O13)</f>
         <v>45771</v>
       </c>
       <c r="L6" t="str">
-        <f>Instructions!P13</f>
+        <f>IF(ISBLANK(Instructions!P13),"",Instructions!P13)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M6">
-        <f>Instructions!Q13</f>
-        <v>0</v>
+      <c r="M6" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q13),"",Instructions!Q13)</f>
+        <v/>
       </c>
       <c r="N6" t="str">
-        <f>Instructions!R13</f>
+        <f>IF(ISBLANK(Instructions!R13),"",Instructions!R13)</f>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(ISBLANK(Instructions!S13),"",Instructions!S13)</f>
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <f>Instructions!T13</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>_xlfn.CONCAT(Instructions!C14,Instructions!D14,"D",TEXT(Instructions!B14,"YY"),TEXT(Instructions!B14,"MM"),"-",TEXT(Instructions!F14,"00"))</f>
         <v>LXND2504-21</v>
@@ -7242,28 +7473,36 @@
         <f>Instructions!M14</f>
         <v>NULL</v>
       </c>
-      <c r="J7" t="str">
-        <f>Instructions!N14</f>
+      <c r="J7" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N14),"",Instructions!N14)</f>
         <v>Proofed</v>
       </c>
       <c r="K7" s="1">
-        <f>Instructions!O14</f>
+        <f>IF(ISBLANK(Instructions!O14),"",Instructions!O14)</f>
         <v>45771</v>
       </c>
       <c r="L7" t="str">
-        <f>Instructions!P14</f>
+        <f>IF(ISBLANK(Instructions!P14),"",Instructions!P14)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M7">
-        <f>Instructions!Q14</f>
-        <v>0</v>
+      <c r="M7" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q14),"",Instructions!Q14)</f>
+        <v/>
       </c>
       <c r="N7" t="str">
-        <f>Instructions!R14</f>
+        <f>IF(ISBLANK(Instructions!R14),"",Instructions!R14)</f>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(ISBLANK(Instructions!S14),"",Instructions!S14)</f>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <f>Instructions!T14</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(Instructions!C15,Instructions!D15,"D",TEXT(Instructions!B15,"YY"),TEXT(Instructions!B15,"MM"),"-",TEXT(Instructions!F15,"00"))</f>
         <v>LXND2504-22</v>
@@ -7300,28 +7539,36 @@
         <f>Instructions!M15</f>
         <v>NULL</v>
       </c>
-      <c r="J8" t="str">
-        <f>Instructions!N15</f>
+      <c r="J8" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N15),"",Instructions!N15)</f>
         <v>Proofed</v>
       </c>
       <c r="K8" s="1">
-        <f>Instructions!O15</f>
+        <f>IF(ISBLANK(Instructions!O15),"",Instructions!O15)</f>
         <v>45771</v>
       </c>
       <c r="L8" t="str">
-        <f>Instructions!P15</f>
+        <f>IF(ISBLANK(Instructions!P15),"",Instructions!P15)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M8">
-        <f>Instructions!Q15</f>
-        <v>0</v>
+      <c r="M8" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q15),"",Instructions!Q15)</f>
+        <v/>
       </c>
       <c r="N8" t="str">
-        <f>Instructions!R15</f>
+        <f>IF(ISBLANK(Instructions!R15),"",Instructions!R15)</f>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(ISBLANK(Instructions!S15),"",Instructions!S15)</f>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f>Instructions!T15</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT(Instructions!C16,Instructions!D16,"D",TEXT(Instructions!B16,"YY"),TEXT(Instructions!B16,"MM"),"-",TEXT(Instructions!F16,"00"))</f>
         <v>LXND2504-23</v>
@@ -7358,28 +7605,36 @@
         <f>Instructions!M16</f>
         <v>NULL</v>
       </c>
-      <c r="J9" t="str">
-        <f>Instructions!N16</f>
+      <c r="J9" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N16),"",Instructions!N16)</f>
         <v>Proofed</v>
       </c>
       <c r="K9" s="1">
-        <f>Instructions!O16</f>
+        <f>IF(ISBLANK(Instructions!O16),"",Instructions!O16)</f>
         <v>45771</v>
       </c>
       <c r="L9" t="str">
-        <f>Instructions!P16</f>
+        <f>IF(ISBLANK(Instructions!P16),"",Instructions!P16)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M9">
-        <f>Instructions!Q16</f>
-        <v>0</v>
+      <c r="M9" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q16),"",Instructions!Q16)</f>
+        <v/>
       </c>
       <c r="N9" t="str">
-        <f>Instructions!R16</f>
+        <f>IF(ISBLANK(Instructions!R16),"",Instructions!R16)</f>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(ISBLANK(Instructions!S16),"",Instructions!S16)</f>
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <f>Instructions!T16</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT(Instructions!C17,Instructions!D17,"D",TEXT(Instructions!B17,"YY"),TEXT(Instructions!B17,"MM"),"-",TEXT(Instructions!F17,"00"))</f>
         <v>LXND2504-24</v>
@@ -7416,28 +7671,36 @@
         <f>Instructions!M17</f>
         <v>NULL</v>
       </c>
-      <c r="J10" t="str">
-        <f>Instructions!N17</f>
+      <c r="J10" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N17),"",Instructions!N17)</f>
         <v>Proofed</v>
       </c>
       <c r="K10" s="1">
-        <f>Instructions!O17</f>
+        <f>IF(ISBLANK(Instructions!O17),"",Instructions!O17)</f>
         <v>45771</v>
       </c>
       <c r="L10" t="str">
-        <f>Instructions!P17</f>
+        <f>IF(ISBLANK(Instructions!P17),"",Instructions!P17)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M10">
-        <f>Instructions!Q17</f>
-        <v>0</v>
+      <c r="M10" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q17),"",Instructions!Q17)</f>
+        <v/>
       </c>
       <c r="N10" t="str">
-        <f>Instructions!R17</f>
+        <f>IF(ISBLANK(Instructions!R17),"",Instructions!R17)</f>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(ISBLANK(Instructions!S17),"",Instructions!S17)</f>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f>Instructions!T17</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT(Instructions!C18,Instructions!D18,"D",TEXT(Instructions!B18,"YY"),TEXT(Instructions!B18,"MM"),"-",TEXT(Instructions!F18,"00"))</f>
         <v>LXND2504-25</v>
@@ -7474,28 +7737,36 @@
         <f>Instructions!M18</f>
         <v>NULL</v>
       </c>
-      <c r="J11" t="str">
-        <f>Instructions!N18</f>
+      <c r="J11" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N18),"",Instructions!N18)</f>
         <v>Proofed</v>
       </c>
       <c r="K11" s="1">
-        <f>Instructions!O18</f>
+        <f>IF(ISBLANK(Instructions!O18),"",Instructions!O18)</f>
         <v>45771</v>
       </c>
       <c r="L11" t="str">
-        <f>Instructions!P18</f>
+        <f>IF(ISBLANK(Instructions!P18),"",Instructions!P18)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M11" t="str">
-        <f>Instructions!Q18</f>
+      <c r="M11" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q18),"",Instructions!Q18)</f>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f>IF(ISBLANK(Instructions!R18),"",Instructions!R18)</f>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f>IF(ISBLANK(Instructions!S18),"",Instructions!S18)</f>
         <v>full body repro</v>
       </c>
-      <c r="N11" t="str">
-        <f>Instructions!R18</f>
+      <c r="P11" t="str">
+        <f>Instructions!T18</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT(Instructions!C19,Instructions!D19,"D",TEXT(Instructions!B19,"YY"),TEXT(Instructions!B19,"MM"),"-",TEXT(Instructions!F19,"00"))</f>
         <v>LXND2504-26</v>
@@ -7532,28 +7803,36 @@
         <f>Instructions!M19</f>
         <v>NULL</v>
       </c>
-      <c r="J12" t="str">
-        <f>Instructions!N19</f>
+      <c r="J12" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N19),"",Instructions!N19)</f>
         <v>Proofed</v>
       </c>
       <c r="K12" s="1">
-        <f>Instructions!O19</f>
+        <f>IF(ISBLANK(Instructions!O19),"",Instructions!O19)</f>
         <v>45771</v>
       </c>
       <c r="L12" t="str">
-        <f>Instructions!P19</f>
+        <f>IF(ISBLANK(Instructions!P19),"",Instructions!P19)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M12">
-        <f>Instructions!Q19</f>
-        <v>0</v>
+      <c r="M12" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q19),"",Instructions!Q19)</f>
+        <v/>
       </c>
       <c r="N12" t="str">
-        <f>Instructions!R19</f>
+        <f>IF(ISBLANK(Instructions!R19),"",Instructions!R19)</f>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(ISBLANK(Instructions!S19),"",Instructions!S19)</f>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f>Instructions!T19</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>_xlfn.CONCAT(Instructions!C20,Instructions!D20,"D",TEXT(Instructions!B20,"YY"),TEXT(Instructions!B20,"MM"),"-",TEXT(Instructions!F20,"00"))</f>
         <v>LXND2504-27</v>
@@ -7590,28 +7869,36 @@
         <f>Instructions!M20</f>
         <v>NULL</v>
       </c>
-      <c r="J13" t="str">
-        <f>Instructions!N20</f>
+      <c r="J13" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N20),"",Instructions!N20)</f>
         <v>Proofed</v>
       </c>
       <c r="K13" s="1">
-        <f>Instructions!O20</f>
+        <f>IF(ISBLANK(Instructions!O20),"",Instructions!O20)</f>
         <v>45771</v>
       </c>
       <c r="L13" t="str">
-        <f>Instructions!P20</f>
+        <f>IF(ISBLANK(Instructions!P20),"",Instructions!P20)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M13">
-        <f>Instructions!Q20</f>
-        <v>0</v>
+      <c r="M13" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q20),"",Instructions!Q20)</f>
+        <v/>
       </c>
       <c r="N13" t="str">
-        <f>Instructions!R20</f>
+        <f>IF(ISBLANK(Instructions!R20),"",Instructions!R20)</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(ISBLANK(Instructions!S20),"",Instructions!S20)</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f>Instructions!T20</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>_xlfn.CONCAT(Instructions!C21,Instructions!D21,"D",TEXT(Instructions!B21,"YY"),TEXT(Instructions!B21,"MM"),"-",TEXT(Instructions!F21,"00"))</f>
         <v>LXND2504-28</v>
@@ -7648,28 +7935,36 @@
         <f>Instructions!M21</f>
         <v>NULL</v>
       </c>
-      <c r="J14" t="str">
-        <f>Instructions!N21</f>
+      <c r="J14" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N21),"",Instructions!N21)</f>
         <v>Proofed</v>
       </c>
       <c r="K14" s="1">
-        <f>Instructions!O21</f>
+        <f>IF(ISBLANK(Instructions!O21),"",Instructions!O21)</f>
         <v>45771</v>
       </c>
       <c r="L14" t="str">
-        <f>Instructions!P21</f>
+        <f>IF(ISBLANK(Instructions!P21),"",Instructions!P21)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M14">
-        <f>Instructions!Q21</f>
-        <v>0</v>
+      <c r="M14" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q21),"",Instructions!Q21)</f>
+        <v/>
       </c>
       <c r="N14" t="str">
-        <f>Instructions!R21</f>
+        <f>IF(ISBLANK(Instructions!R21),"",Instructions!R21)</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(ISBLANK(Instructions!S21),"",Instructions!S21)</f>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f>Instructions!T21</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>_xlfn.CONCAT(Instructions!C22,Instructions!D22,"D",TEXT(Instructions!B22,"YY"),TEXT(Instructions!B22,"MM"),"-",TEXT(Instructions!F22,"00"))</f>
         <v>LXND2504-29</v>
@@ -7706,28 +8001,36 @@
         <f>Instructions!M22</f>
         <v>NULL</v>
       </c>
-      <c r="J15" t="str">
-        <f>Instructions!N22</f>
+      <c r="J15" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N22),"",Instructions!N22)</f>
         <v>Proofed</v>
       </c>
       <c r="K15" s="1">
-        <f>Instructions!O22</f>
+        <f>IF(ISBLANK(Instructions!O22),"",Instructions!O22)</f>
         <v>45771</v>
       </c>
       <c r="L15" t="str">
-        <f>Instructions!P22</f>
+        <f>IF(ISBLANK(Instructions!P22),"",Instructions!P22)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M15">
-        <f>Instructions!Q22</f>
-        <v>0</v>
+      <c r="M15" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q22),"",Instructions!Q22)</f>
+        <v/>
       </c>
       <c r="N15" t="str">
-        <f>Instructions!R22</f>
+        <f>IF(ISBLANK(Instructions!R22),"",Instructions!R22)</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(ISBLANK(Instructions!S22),"",Instructions!S22)</f>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f>Instructions!T22</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>_xlfn.CONCAT(Instructions!C23,Instructions!D23,"D",TEXT(Instructions!B23,"YY"),TEXT(Instructions!B23,"MM"),"-",TEXT(Instructions!F23,"00"))</f>
         <v>LXND2504-30</v>
@@ -7764,28 +8067,36 @@
         <f>Instructions!M23</f>
         <v>NULL</v>
       </c>
-      <c r="J16" t="str">
-        <f>Instructions!N23</f>
+      <c r="J16" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N23),"",Instructions!N23)</f>
         <v>Proofed</v>
       </c>
       <c r="K16" s="1">
-        <f>Instructions!O23</f>
+        <f>IF(ISBLANK(Instructions!O23),"",Instructions!O23)</f>
         <v>45771</v>
       </c>
       <c r="L16" t="str">
-        <f>Instructions!P23</f>
+        <f>IF(ISBLANK(Instructions!P23),"",Instructions!P23)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M16">
-        <f>Instructions!Q23</f>
-        <v>0</v>
+      <c r="M16" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q23),"",Instructions!Q23)</f>
+        <v/>
       </c>
       <c r="N16" t="str">
-        <f>Instructions!R23</f>
+        <f>IF(ISBLANK(Instructions!R23),"",Instructions!R23)</f>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(ISBLANK(Instructions!S23),"",Instructions!S23)</f>
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <f>Instructions!T23</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>_xlfn.CONCAT(Instructions!C24,Instructions!D24,"D",TEXT(Instructions!B24,"YY"),TEXT(Instructions!B24,"MM"),"-",TEXT(Instructions!F24,"00"))</f>
         <v>LXND2504-31</v>
@@ -7822,28 +8133,36 @@
         <f>Instructions!M24</f>
         <v>NULL</v>
       </c>
-      <c r="J17" t="str">
-        <f>Instructions!N24</f>
+      <c r="J17" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N24),"",Instructions!N24)</f>
         <v>Proofed</v>
       </c>
       <c r="K17" s="1">
-        <f>Instructions!O24</f>
+        <f>IF(ISBLANK(Instructions!O24),"",Instructions!O24)</f>
         <v>45771</v>
       </c>
       <c r="L17" t="str">
-        <f>Instructions!P24</f>
+        <f>IF(ISBLANK(Instructions!P24),"",Instructions!P24)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M17">
-        <f>Instructions!Q24</f>
-        <v>0</v>
+      <c r="M17" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q24),"",Instructions!Q24)</f>
+        <v/>
       </c>
       <c r="N17" t="str">
-        <f>Instructions!R24</f>
+        <f>IF(ISBLANK(Instructions!R24),"",Instructions!R24)</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f>IF(ISBLANK(Instructions!S24),"",Instructions!S24)</f>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f>Instructions!T24</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT(Instructions!C25,Instructions!D25,"D",TEXT(Instructions!B25,"YY"),TEXT(Instructions!B25,"MM"),"-",TEXT(Instructions!F25,"00"))</f>
         <v>LXND2504-32</v>
@@ -7880,28 +8199,36 @@
         <f>Instructions!M25</f>
         <v>NULL</v>
       </c>
-      <c r="J18" t="str">
-        <f>Instructions!N25</f>
+      <c r="J18" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N25),"",Instructions!N25)</f>
         <v>Proofed</v>
       </c>
       <c r="K18" s="1">
-        <f>Instructions!O25</f>
+        <f>IF(ISBLANK(Instructions!O25),"",Instructions!O25)</f>
         <v>45771</v>
       </c>
       <c r="L18" t="str">
-        <f>Instructions!P25</f>
+        <f>IF(ISBLANK(Instructions!P25),"",Instructions!P25)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M18">
-        <f>Instructions!Q25</f>
-        <v>0</v>
+      <c r="M18" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q25),"",Instructions!Q25)</f>
+        <v/>
       </c>
       <c r="N18" t="str">
-        <f>Instructions!R25</f>
+        <f>IF(ISBLANK(Instructions!R25),"",Instructions!R25)</f>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f>IF(ISBLANK(Instructions!S25),"",Instructions!S25)</f>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f>Instructions!T25</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>_xlfn.CONCAT(Instructions!C26,Instructions!D26,"D",TEXT(Instructions!B26,"YY"),TEXT(Instructions!B26,"MM"),"-",TEXT(Instructions!F26,"00"))</f>
         <v>LXND2504-33</v>
@@ -7938,28 +8265,36 @@
         <f>Instructions!M26</f>
         <v>NULL</v>
       </c>
-      <c r="J19" t="str">
-        <f>Instructions!N26</f>
+      <c r="J19" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N26),"",Instructions!N26)</f>
         <v>Proofed</v>
       </c>
       <c r="K19" s="1">
-        <f>Instructions!O26</f>
+        <f>IF(ISBLANK(Instructions!O26),"",Instructions!O26)</f>
         <v>45771</v>
       </c>
       <c r="L19" t="str">
-        <f>Instructions!P26</f>
+        <f>IF(ISBLANK(Instructions!P26),"",Instructions!P26)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M19">
-        <f>Instructions!Q26</f>
-        <v>0</v>
+      <c r="M19" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q26),"",Instructions!Q26)</f>
+        <v/>
       </c>
       <c r="N19" t="str">
-        <f>Instructions!R26</f>
+        <f>IF(ISBLANK(Instructions!R26),"",Instructions!R26)</f>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(ISBLANK(Instructions!S26),"",Instructions!S26)</f>
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <f>Instructions!T26</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>_xlfn.CONCAT(Instructions!C27,Instructions!D27,"D",TEXT(Instructions!B27,"YY"),TEXT(Instructions!B27,"MM"),"-",TEXT(Instructions!F27,"00"))</f>
         <v>LXND2504-34</v>
@@ -7996,28 +8331,36 @@
         <f>Instructions!M27</f>
         <v>NULL</v>
       </c>
-      <c r="J20" t="str">
-        <f>Instructions!N27</f>
+      <c r="J20" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N27),"",Instructions!N27)</f>
         <v>Proofed</v>
       </c>
       <c r="K20" s="1">
-        <f>Instructions!O27</f>
+        <f>IF(ISBLANK(Instructions!O27),"",Instructions!O27)</f>
         <v>45771</v>
       </c>
       <c r="L20" t="str">
-        <f>Instructions!P27</f>
+        <f>IF(ISBLANK(Instructions!P27),"",Instructions!P27)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M20">
-        <f>Instructions!Q27</f>
-        <v>0</v>
+      <c r="M20" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q27),"",Instructions!Q27)</f>
+        <v/>
       </c>
       <c r="N20" t="str">
-        <f>Instructions!R27</f>
+        <f>IF(ISBLANK(Instructions!R27),"",Instructions!R27)</f>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f>IF(ISBLANK(Instructions!S27),"",Instructions!S27)</f>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f>Instructions!T27</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>_xlfn.CONCAT(Instructions!C28,Instructions!D28,"D",TEXT(Instructions!B28,"YY"),TEXT(Instructions!B28,"MM"),"-",TEXT(Instructions!F28,"00"))</f>
         <v>LXND2504-35</v>
@@ -8054,28 +8397,36 @@
         <f>Instructions!M28</f>
         <v>NULL</v>
       </c>
-      <c r="J21" t="str">
-        <f>Instructions!N28</f>
+      <c r="J21" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N28),"",Instructions!N28)</f>
         <v>Proofed</v>
       </c>
       <c r="K21" s="1">
-        <f>Instructions!O28</f>
+        <f>IF(ISBLANK(Instructions!O28),"",Instructions!O28)</f>
         <v>45771</v>
       </c>
       <c r="L21" t="str">
-        <f>Instructions!P28</f>
+        <f>IF(ISBLANK(Instructions!P28),"",Instructions!P28)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M21">
-        <f>Instructions!Q28</f>
-        <v>0</v>
+      <c r="M21" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q28),"",Instructions!Q28)</f>
+        <v/>
       </c>
       <c r="N21" t="str">
-        <f>Instructions!R28</f>
+        <f>IF(ISBLANK(Instructions!R28),"",Instructions!R28)</f>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f>IF(ISBLANK(Instructions!S28),"",Instructions!S28)</f>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f>Instructions!T28</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>_xlfn.CONCAT(Instructions!C29,Instructions!D29,"D",TEXT(Instructions!B29,"YY"),TEXT(Instructions!B29,"MM"),"-",TEXT(Instructions!F29,"00"))</f>
         <v>LXND2504-36</v>
@@ -8112,28 +8463,36 @@
         <f>Instructions!M29</f>
         <v>NULL</v>
       </c>
-      <c r="J22" t="str">
-        <f>Instructions!N29</f>
+      <c r="J22" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N29),"",Instructions!N29)</f>
         <v>Proofed</v>
       </c>
       <c r="K22" s="1">
-        <f>Instructions!O29</f>
+        <f>IF(ISBLANK(Instructions!O29),"",Instructions!O29)</f>
         <v>45771</v>
       </c>
       <c r="L22" t="str">
-        <f>Instructions!P29</f>
+        <f>IF(ISBLANK(Instructions!P29),"",Instructions!P29)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M22">
-        <f>Instructions!Q29</f>
-        <v>0</v>
+      <c r="M22" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q29),"",Instructions!Q29)</f>
+        <v/>
       </c>
       <c r="N22" t="str">
-        <f>Instructions!R29</f>
+        <f>IF(ISBLANK(Instructions!R29),"",Instructions!R29)</f>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f>IF(ISBLANK(Instructions!S29),"",Instructions!S29)</f>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f>Instructions!T29</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>_xlfn.CONCAT(Instructions!C30,Instructions!D30,"D",TEXT(Instructions!B30,"YY"),TEXT(Instructions!B30,"MM"),"-",TEXT(Instructions!F30,"00"))</f>
         <v>LXND2504-37</v>
@@ -8170,28 +8529,36 @@
         <f>Instructions!M30</f>
         <v>NULL</v>
       </c>
-      <c r="J23" t="str">
-        <f>Instructions!N30</f>
+      <c r="J23" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N30),"",Instructions!N30)</f>
         <v>Proofed</v>
       </c>
       <c r="K23" s="1">
-        <f>Instructions!O30</f>
+        <f>IF(ISBLANK(Instructions!O30),"",Instructions!O30)</f>
         <v>45771</v>
       </c>
       <c r="L23" t="str">
-        <f>Instructions!P30</f>
+        <f>IF(ISBLANK(Instructions!P30),"",Instructions!P30)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M23">
-        <f>Instructions!Q30</f>
-        <v>0</v>
+      <c r="M23" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q30),"",Instructions!Q30)</f>
+        <v/>
       </c>
       <c r="N23" t="str">
-        <f>Instructions!R30</f>
+        <f>IF(ISBLANK(Instructions!R30),"",Instructions!R30)</f>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f>IF(ISBLANK(Instructions!S30),"",Instructions!S30)</f>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <f>Instructions!T30</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>_xlfn.CONCAT(Instructions!C31,Instructions!D31,"D",TEXT(Instructions!B31,"YY"),TEXT(Instructions!B31,"MM"),"-",TEXT(Instructions!F31,"00"))</f>
         <v>LXND2504-38</v>
@@ -8228,28 +8595,36 @@
         <f>Instructions!M31</f>
         <v>NULL</v>
       </c>
-      <c r="J24" t="str">
-        <f>Instructions!N31</f>
+      <c r="J24" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N31),"",Instructions!N31)</f>
         <v>Proofed</v>
       </c>
       <c r="K24" s="1">
-        <f>Instructions!O31</f>
+        <f>IF(ISBLANK(Instructions!O31),"",Instructions!O31)</f>
         <v>45771</v>
       </c>
       <c r="L24" t="str">
-        <f>Instructions!P31</f>
+        <f>IF(ISBLANK(Instructions!P31),"",Instructions!P31)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M24">
-        <f>Instructions!Q31</f>
-        <v>0</v>
+      <c r="M24" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q31),"",Instructions!Q31)</f>
+        <v/>
       </c>
       <c r="N24" t="str">
-        <f>Instructions!R31</f>
+        <f>IF(ISBLANK(Instructions!R31),"",Instructions!R31)</f>
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <f>IF(ISBLANK(Instructions!S31),"",Instructions!S31)</f>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <f>Instructions!T31</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>_xlfn.CONCAT(Instructions!C32,Instructions!D32,"D",TEXT(Instructions!B32,"YY"),TEXT(Instructions!B32,"MM"),"-",TEXT(Instructions!F32,"00"))</f>
         <v>LXND2504-39</v>
@@ -8286,28 +8661,36 @@
         <f>Instructions!M32</f>
         <v>NULL</v>
       </c>
-      <c r="J25" t="str">
-        <f>Instructions!N32</f>
+      <c r="J25" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N32),"",Instructions!N32)</f>
         <v>Proofed</v>
       </c>
       <c r="K25" s="1">
-        <f>Instructions!O32</f>
+        <f>IF(ISBLANK(Instructions!O32),"",Instructions!O32)</f>
         <v>45771</v>
       </c>
       <c r="L25" t="str">
-        <f>Instructions!P32</f>
+        <f>IF(ISBLANK(Instructions!P32),"",Instructions!P32)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M25">
-        <f>Instructions!Q32</f>
-        <v>0</v>
+      <c r="M25" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q32),"",Instructions!Q32)</f>
+        <v/>
       </c>
       <c r="N25" t="str">
-        <f>Instructions!R32</f>
+        <f>IF(ISBLANK(Instructions!R32),"",Instructions!R32)</f>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f>IF(ISBLANK(Instructions!S32),"",Instructions!S32)</f>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f>Instructions!T32</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>_xlfn.CONCAT(Instructions!C33,Instructions!D33,"D",TEXT(Instructions!B33,"YY"),TEXT(Instructions!B33,"MM"),"-",TEXT(Instructions!F33,"00"))</f>
         <v>LXND2504-40</v>
@@ -8344,28 +8727,36 @@
         <f>Instructions!M33</f>
         <v>NULL</v>
       </c>
-      <c r="J26" t="str">
-        <f>Instructions!N33</f>
+      <c r="J26" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N33),"",Instructions!N33)</f>
         <v>Proofed</v>
       </c>
       <c r="K26" s="1">
-        <f>Instructions!O33</f>
+        <f>IF(ISBLANK(Instructions!O33),"",Instructions!O33)</f>
         <v>45771</v>
       </c>
       <c r="L26" t="str">
-        <f>Instructions!P33</f>
+        <f>IF(ISBLANK(Instructions!P33),"",Instructions!P33)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M26">
-        <f>Instructions!Q33</f>
-        <v>0</v>
+      <c r="M26" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q33),"",Instructions!Q33)</f>
+        <v/>
       </c>
       <c r="N26" t="str">
-        <f>Instructions!R33</f>
+        <f>IF(ISBLANK(Instructions!R33),"",Instructions!R33)</f>
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <f>IF(ISBLANK(Instructions!S33),"",Instructions!S33)</f>
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <f>Instructions!T33</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>_xlfn.CONCAT(Instructions!C34,Instructions!D34,"D",TEXT(Instructions!B34,"YY"),TEXT(Instructions!B34,"MM"),"-",TEXT(Instructions!F34,"00"))</f>
         <v>LXND2504-41</v>
@@ -8402,28 +8793,36 @@
         <f>Instructions!M34</f>
         <v>NULL</v>
       </c>
-      <c r="J27" t="str">
-        <f>Instructions!N34</f>
+      <c r="J27" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N34),"",Instructions!N34)</f>
         <v>Proofed</v>
       </c>
       <c r="K27" s="1">
-        <f>Instructions!O34</f>
+        <f>IF(ISBLANK(Instructions!O34),"",Instructions!O34)</f>
         <v>45771</v>
       </c>
       <c r="L27" t="str">
-        <f>Instructions!P34</f>
+        <f>IF(ISBLANK(Instructions!P34),"",Instructions!P34)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M27" t="str">
-        <f>Instructions!Q34</f>
+      <c r="M27" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q34),"",Instructions!Q34)</f>
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <f>IF(ISBLANK(Instructions!R34),"",Instructions!R34)</f>
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <f>IF(ISBLANK(Instructions!S34),"",Instructions!S34)</f>
         <v>full body repro</v>
       </c>
-      <c r="N27" t="str">
-        <f>Instructions!R34</f>
+      <c r="P27" t="str">
+        <f>Instructions!T34</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>_xlfn.CONCAT(Instructions!C35,Instructions!D35,"D",TEXT(Instructions!B35,"YY"),TEXT(Instructions!B35,"MM"),"-",TEXT(Instructions!F35,"00"))</f>
         <v>LXND2504-42</v>
@@ -8460,28 +8859,36 @@
         <f>Instructions!M35</f>
         <v>NULL</v>
       </c>
-      <c r="J28" t="str">
-        <f>Instructions!N35</f>
+      <c r="J28" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N35),"",Instructions!N35)</f>
         <v>Proofed</v>
       </c>
       <c r="K28" s="1">
-        <f>Instructions!O35</f>
+        <f>IF(ISBLANK(Instructions!O35),"",Instructions!O35)</f>
         <v>45771</v>
       </c>
       <c r="L28" t="str">
-        <f>Instructions!P35</f>
+        <f>IF(ISBLANK(Instructions!P35),"",Instructions!P35)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M28">
-        <f>Instructions!Q35</f>
-        <v>0</v>
+      <c r="M28" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q35),"",Instructions!Q35)</f>
+        <v/>
       </c>
       <c r="N28" t="str">
-        <f>Instructions!R35</f>
+        <f>IF(ISBLANK(Instructions!R35),"",Instructions!R35)</f>
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <f>IF(ISBLANK(Instructions!S35),"",Instructions!S35)</f>
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <f>Instructions!T35</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT(Instructions!C36,Instructions!D36,"D",TEXT(Instructions!B36,"YY"),TEXT(Instructions!B36,"MM"),"-",TEXT(Instructions!F36,"00"))</f>
         <v>LXND2504-43</v>
@@ -8518,28 +8925,36 @@
         <f>Instructions!M36</f>
         <v>NULL</v>
       </c>
-      <c r="J29" t="str">
-        <f>Instructions!N36</f>
+      <c r="J29" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N36),"",Instructions!N36)</f>
         <v>Proofed</v>
       </c>
       <c r="K29" s="1">
-        <f>Instructions!O36</f>
+        <f>IF(ISBLANK(Instructions!O36),"",Instructions!O36)</f>
         <v>45771</v>
       </c>
       <c r="L29" t="str">
-        <f>Instructions!P36</f>
+        <f>IF(ISBLANK(Instructions!P36),"",Instructions!P36)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M29">
-        <f>Instructions!Q36</f>
-        <v>0</v>
+      <c r="M29" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q36),"",Instructions!Q36)</f>
+        <v/>
       </c>
       <c r="N29" t="str">
-        <f>Instructions!R36</f>
+        <f>IF(ISBLANK(Instructions!R36),"",Instructions!R36)</f>
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <f>IF(ISBLANK(Instructions!S36),"",Instructions!S36)</f>
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <f>Instructions!T36</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>_xlfn.CONCAT(Instructions!C37,Instructions!D37,"D",TEXT(Instructions!B37,"YY"),TEXT(Instructions!B37,"MM"),"-",TEXT(Instructions!F37,"00"))</f>
         <v>LXND2504-44</v>
@@ -8576,28 +8991,36 @@
         <f>Instructions!M37</f>
         <v>NULL</v>
       </c>
-      <c r="J30" t="str">
-        <f>Instructions!N37</f>
+      <c r="J30" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N37),"",Instructions!N37)</f>
         <v>Proofed</v>
       </c>
       <c r="K30" s="1">
-        <f>Instructions!O37</f>
+        <f>IF(ISBLANK(Instructions!O37),"",Instructions!O37)</f>
         <v>45771</v>
       </c>
       <c r="L30" t="str">
-        <f>Instructions!P37</f>
+        <f>IF(ISBLANK(Instructions!P37),"",Instructions!P37)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M30">
-        <f>Instructions!Q37</f>
-        <v>0</v>
+      <c r="M30" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q37),"",Instructions!Q37)</f>
+        <v/>
       </c>
       <c r="N30" t="str">
-        <f>Instructions!R37</f>
+        <f>IF(ISBLANK(Instructions!R37),"",Instructions!R37)</f>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f>IF(ISBLANK(Instructions!S37),"",Instructions!S37)</f>
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <f>Instructions!T37</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>_xlfn.CONCAT(Instructions!C38,Instructions!D38,"D",TEXT(Instructions!B38,"YY"),TEXT(Instructions!B38,"MM"),"-",TEXT(Instructions!F38,"00"))</f>
         <v>LXND2504-45</v>
@@ -8634,28 +9057,36 @@
         <f>Instructions!M38</f>
         <v>NULL</v>
       </c>
-      <c r="J31" t="str">
-        <f>Instructions!N38</f>
+      <c r="J31" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N38),"",Instructions!N38)</f>
         <v>Proofed</v>
       </c>
       <c r="K31" s="1">
-        <f>Instructions!O38</f>
+        <f>IF(ISBLANK(Instructions!O38),"",Instructions!O38)</f>
         <v>45771</v>
       </c>
       <c r="L31" t="str">
-        <f>Instructions!P38</f>
+        <f>IF(ISBLANK(Instructions!P38),"",Instructions!P38)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M31">
-        <f>Instructions!Q38</f>
-        <v>0</v>
+      <c r="M31" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q38),"",Instructions!Q38)</f>
+        <v/>
       </c>
       <c r="N31" t="str">
-        <f>Instructions!R38</f>
+        <f>IF(ISBLANK(Instructions!R38),"",Instructions!R38)</f>
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <f>IF(ISBLANK(Instructions!S38),"",Instructions!S38)</f>
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <f>Instructions!T38</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>_xlfn.CONCAT(Instructions!C39,Instructions!D39,"D",TEXT(Instructions!B39,"YY"),TEXT(Instructions!B39,"MM"),"-",TEXT(Instructions!F39,"00"))</f>
         <v>LXND2504-46</v>
@@ -8692,28 +9123,36 @@
         <f>Instructions!M39</f>
         <v>NULL</v>
       </c>
-      <c r="J32" t="str">
-        <f>Instructions!N39</f>
+      <c r="J32" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N39),"",Instructions!N39)</f>
         <v>Proofed</v>
       </c>
       <c r="K32" s="1">
-        <f>Instructions!O39</f>
+        <f>IF(ISBLANK(Instructions!O39),"",Instructions!O39)</f>
         <v>45771</v>
       </c>
       <c r="L32" t="str">
-        <f>Instructions!P39</f>
+        <f>IF(ISBLANK(Instructions!P39),"",Instructions!P39)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M32">
-        <f>Instructions!Q39</f>
-        <v>0</v>
+      <c r="M32" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q39),"",Instructions!Q39)</f>
+        <v/>
       </c>
       <c r="N32" t="str">
-        <f>Instructions!R39</f>
+        <f>IF(ISBLANK(Instructions!R39),"",Instructions!R39)</f>
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <f>IF(ISBLANK(Instructions!S39),"",Instructions!S39)</f>
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <f>Instructions!T39</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>_xlfn.CONCAT(Instructions!C40,Instructions!D40,"D",TEXT(Instructions!B40,"YY"),TEXT(Instructions!B40,"MM"),"-",TEXT(Instructions!F40,"00"))</f>
         <v>LXND2504-47</v>
@@ -8750,28 +9189,36 @@
         <f>Instructions!M40</f>
         <v>NULL</v>
       </c>
-      <c r="J33" t="str">
-        <f>Instructions!N40</f>
+      <c r="J33" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N40),"",Instructions!N40)</f>
         <v>Proofed</v>
       </c>
       <c r="K33" s="1">
-        <f>Instructions!O40</f>
+        <f>IF(ISBLANK(Instructions!O40),"",Instructions!O40)</f>
         <v>45771</v>
       </c>
       <c r="L33" t="str">
-        <f>Instructions!P40</f>
+        <f>IF(ISBLANK(Instructions!P40),"",Instructions!P40)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M33">
-        <f>Instructions!Q40</f>
-        <v>0</v>
+      <c r="M33" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q40),"",Instructions!Q40)</f>
+        <v/>
       </c>
       <c r="N33" t="str">
-        <f>Instructions!R40</f>
+        <f>IF(ISBLANK(Instructions!R40),"",Instructions!R40)</f>
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <f>IF(ISBLANK(Instructions!S40),"",Instructions!S40)</f>
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <f>Instructions!T40</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>_xlfn.CONCAT(Instructions!C41,Instructions!D41,"D",TEXT(Instructions!B41,"YY"),TEXT(Instructions!B41,"MM"),"-",TEXT(Instructions!F41,"00"))</f>
         <v>LXND2504-48</v>
@@ -8808,28 +9255,36 @@
         <f>Instructions!M41</f>
         <v>NULL</v>
       </c>
-      <c r="J34" t="str">
-        <f>Instructions!N41</f>
+      <c r="J34" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N41),"",Instructions!N41)</f>
         <v>Proofed</v>
       </c>
       <c r="K34" s="1">
-        <f>Instructions!O41</f>
+        <f>IF(ISBLANK(Instructions!O41),"",Instructions!O41)</f>
         <v>45771</v>
       </c>
       <c r="L34" t="str">
-        <f>Instructions!P41</f>
+        <f>IF(ISBLANK(Instructions!P41),"",Instructions!P41)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M34">
-        <f>Instructions!Q41</f>
-        <v>0</v>
+      <c r="M34" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q41),"",Instructions!Q41)</f>
+        <v/>
       </c>
       <c r="N34" t="str">
-        <f>Instructions!R41</f>
+        <f>IF(ISBLANK(Instructions!R41),"",Instructions!R41)</f>
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <f>IF(ISBLANK(Instructions!S41),"",Instructions!S41)</f>
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <f>Instructions!T41</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>_xlfn.CONCAT(Instructions!C42,Instructions!D42,"D",TEXT(Instructions!B42,"YY"),TEXT(Instructions!B42,"MM"),"-",TEXT(Instructions!F42,"00"))</f>
         <v>LXND2504-49</v>
@@ -8866,28 +9321,36 @@
         <f>Instructions!M42</f>
         <v>NULL</v>
       </c>
-      <c r="J35" t="str">
-        <f>Instructions!N42</f>
+      <c r="J35" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N42),"",Instructions!N42)</f>
         <v>Proofed</v>
       </c>
       <c r="K35" s="1">
-        <f>Instructions!O42</f>
+        <f>IF(ISBLANK(Instructions!O42),"",Instructions!O42)</f>
         <v>45771</v>
       </c>
       <c r="L35" t="str">
-        <f>Instructions!P42</f>
+        <f>IF(ISBLANK(Instructions!P42),"",Instructions!P42)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M35">
-        <f>Instructions!Q42</f>
-        <v>0</v>
+      <c r="M35" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q42),"",Instructions!Q42)</f>
+        <v/>
       </c>
       <c r="N35" t="str">
-        <f>Instructions!R42</f>
+        <f>IF(ISBLANK(Instructions!R42),"",Instructions!R42)</f>
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <f>IF(ISBLANK(Instructions!S42),"",Instructions!S42)</f>
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <f>Instructions!T42</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>_xlfn.CONCAT(Instructions!C43,Instructions!D43,"D",TEXT(Instructions!B43,"YY"),TEXT(Instructions!B43,"MM"),"-",TEXT(Instructions!F43,"00"))</f>
         <v>LXND2504-50</v>
@@ -8924,28 +9387,36 @@
         <f>Instructions!M43</f>
         <v>NULL</v>
       </c>
-      <c r="J36" t="str">
-        <f>Instructions!N43</f>
+      <c r="J36" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N43),"",Instructions!N43)</f>
         <v>Proofed</v>
       </c>
       <c r="K36" s="1">
-        <f>Instructions!O43</f>
+        <f>IF(ISBLANK(Instructions!O43),"",Instructions!O43)</f>
         <v>45771</v>
       </c>
       <c r="L36" t="str">
-        <f>Instructions!P43</f>
+        <f>IF(ISBLANK(Instructions!P43),"",Instructions!P43)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M36" t="str">
-        <f>Instructions!Q43</f>
+      <c r="M36" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q43),"",Instructions!Q43)</f>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f>IF(ISBLANK(Instructions!R43),"",Instructions!R43)</f>
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <f>IF(ISBLANK(Instructions!S43),"",Instructions!S43)</f>
         <v>full body repro</v>
       </c>
-      <c r="N36" t="str">
-        <f>Instructions!R43</f>
+      <c r="P36" t="str">
+        <f>Instructions!T43</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>_xlfn.CONCAT(Instructions!C44,Instructions!D44,"D",TEXT(Instructions!B44,"YY"),TEXT(Instructions!B44,"MM"),"-",TEXT(Instructions!F44,"00"))</f>
         <v>LXND2505-16</v>
@@ -8982,28 +9453,36 @@
         <f>Instructions!M44</f>
         <v>NULL</v>
       </c>
-      <c r="J37" t="str">
-        <f>Instructions!N44</f>
+      <c r="J37" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N44),"",Instructions!N44)</f>
         <v>Proofed</v>
       </c>
       <c r="K37" s="1">
-        <f>Instructions!O44</f>
+        <f>IF(ISBLANK(Instructions!O44),"",Instructions!O44)</f>
         <v>45804</v>
       </c>
       <c r="L37" t="str">
-        <f>Instructions!P44</f>
+        <f>IF(ISBLANK(Instructions!P44),"",Instructions!P44)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M37">
-        <f>Instructions!Q44</f>
-        <v>0</v>
+      <c r="M37" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q44),"",Instructions!Q44)</f>
+        <v/>
       </c>
       <c r="N37" t="str">
-        <f>Instructions!R44</f>
+        <f>IF(ISBLANK(Instructions!R44),"",Instructions!R44)</f>
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <f>IF(ISBLANK(Instructions!S44),"",Instructions!S44)</f>
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <f>Instructions!T44</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>_xlfn.CONCAT(Instructions!C45,Instructions!D45,"D",TEXT(Instructions!B45,"YY"),TEXT(Instructions!B45,"MM"),"-",TEXT(Instructions!F45,"00"))</f>
         <v>LXND2505-17</v>
@@ -9040,28 +9519,36 @@
         <f>Instructions!M45</f>
         <v>NULL</v>
       </c>
-      <c r="J38" t="str">
-        <f>Instructions!N45</f>
+      <c r="J38" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N45),"",Instructions!N45)</f>
         <v>Proofed</v>
       </c>
       <c r="K38" s="1">
-        <f>Instructions!O45</f>
+        <f>IF(ISBLANK(Instructions!O45),"",Instructions!O45)</f>
         <v>45804</v>
       </c>
       <c r="L38" t="str">
-        <f>Instructions!P45</f>
+        <f>IF(ISBLANK(Instructions!P45),"",Instructions!P45)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M38">
-        <f>Instructions!Q45</f>
-        <v>0</v>
+      <c r="M38" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q45),"",Instructions!Q45)</f>
+        <v/>
       </c>
       <c r="N38" t="str">
-        <f>Instructions!R45</f>
+        <f>IF(ISBLANK(Instructions!R45),"",Instructions!R45)</f>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f>IF(ISBLANK(Instructions!S45),"",Instructions!S45)</f>
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <f>Instructions!T45</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>_xlfn.CONCAT(Instructions!C46,Instructions!D46,"D",TEXT(Instructions!B46,"YY"),TEXT(Instructions!B46,"MM"),"-",TEXT(Instructions!F46,"00"))</f>
         <v>LXND2505-18</v>
@@ -9098,28 +9585,36 @@
         <f>Instructions!M46</f>
         <v>NULL</v>
       </c>
-      <c r="J39" t="str">
-        <f>Instructions!N46</f>
+      <c r="J39" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N46),"",Instructions!N46)</f>
         <v>Proofed</v>
       </c>
       <c r="K39" s="1">
-        <f>Instructions!O46</f>
+        <f>IF(ISBLANK(Instructions!O46),"",Instructions!O46)</f>
         <v>45804</v>
       </c>
       <c r="L39" t="str">
-        <f>Instructions!P46</f>
+        <f>IF(ISBLANK(Instructions!P46),"",Instructions!P46)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M39">
-        <f>Instructions!Q46</f>
-        <v>0</v>
+      <c r="M39" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q46),"",Instructions!Q46)</f>
+        <v/>
       </c>
       <c r="N39" t="str">
-        <f>Instructions!R46</f>
+        <f>IF(ISBLANK(Instructions!R46),"",Instructions!R46)</f>
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <f>IF(ISBLANK(Instructions!S46),"",Instructions!S46)</f>
+        <v/>
+      </c>
+      <c r="P39" t="str">
+        <f>Instructions!T46</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>_xlfn.CONCAT(Instructions!C47,Instructions!D47,"D",TEXT(Instructions!B47,"YY"),TEXT(Instructions!B47,"MM"),"-",TEXT(Instructions!F47,"00"))</f>
         <v>LXND2505-19</v>
@@ -9156,28 +9651,36 @@
         <f>Instructions!M47</f>
         <v>NULL</v>
       </c>
-      <c r="J40" t="str">
-        <f>Instructions!N47</f>
+      <c r="J40" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N47),"",Instructions!N47)</f>
         <v>Proofed</v>
       </c>
       <c r="K40" s="1">
-        <f>Instructions!O47</f>
+        <f>IF(ISBLANK(Instructions!O47),"",Instructions!O47)</f>
         <v>45804</v>
       </c>
       <c r="L40" t="str">
-        <f>Instructions!P47</f>
+        <f>IF(ISBLANK(Instructions!P47),"",Instructions!P47)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M40">
-        <f>Instructions!Q47</f>
-        <v>0</v>
+      <c r="M40" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q47),"",Instructions!Q47)</f>
+        <v/>
       </c>
       <c r="N40" t="str">
-        <f>Instructions!R47</f>
+        <f>IF(ISBLANK(Instructions!R47),"",Instructions!R47)</f>
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <f>IF(ISBLANK(Instructions!S47),"",Instructions!S47)</f>
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <f>Instructions!T47</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>_xlfn.CONCAT(Instructions!C48,Instructions!D48,"D",TEXT(Instructions!B48,"YY"),TEXT(Instructions!B48,"MM"),"-",TEXT(Instructions!F48,"00"))</f>
         <v>LXND2505-20</v>
@@ -9214,28 +9717,36 @@
         <f>Instructions!M48</f>
         <v>NULL</v>
       </c>
-      <c r="J41" t="str">
-        <f>Instructions!N48</f>
+      <c r="J41" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N48),"",Instructions!N48)</f>
         <v>Proofed</v>
       </c>
       <c r="K41" s="1">
-        <f>Instructions!O48</f>
+        <f>IF(ISBLANK(Instructions!O48),"",Instructions!O48)</f>
         <v>45804</v>
       </c>
       <c r="L41" t="str">
-        <f>Instructions!P48</f>
+        <f>IF(ISBLANK(Instructions!P48),"",Instructions!P48)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M41">
-        <f>Instructions!Q48</f>
-        <v>0</v>
+      <c r="M41" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q48),"",Instructions!Q48)</f>
+        <v/>
       </c>
       <c r="N41" t="str">
-        <f>Instructions!R48</f>
+        <f>IF(ISBLANK(Instructions!R48),"",Instructions!R48)</f>
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <f>IF(ISBLANK(Instructions!S48),"",Instructions!S48)</f>
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <f>Instructions!T48</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>_xlfn.CONCAT(Instructions!C49,Instructions!D49,"D",TEXT(Instructions!B49,"YY"),TEXT(Instructions!B49,"MM"),"-",TEXT(Instructions!F49,"00"))</f>
         <v>LXND2505-21</v>
@@ -9272,28 +9783,36 @@
         <f>Instructions!M49</f>
         <v>NULL</v>
       </c>
-      <c r="J42" t="str">
-        <f>Instructions!N49</f>
+      <c r="J42" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N49),"",Instructions!N49)</f>
         <v>Proofed</v>
       </c>
       <c r="K42" s="1">
-        <f>Instructions!O49</f>
+        <f>IF(ISBLANK(Instructions!O49),"",Instructions!O49)</f>
         <v>45804</v>
       </c>
       <c r="L42" t="str">
-        <f>Instructions!P49</f>
+        <f>IF(ISBLANK(Instructions!P49),"",Instructions!P49)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M42">
-        <f>Instructions!Q49</f>
-        <v>0</v>
+      <c r="M42" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q49),"",Instructions!Q49)</f>
+        <v/>
       </c>
       <c r="N42" t="str">
-        <f>Instructions!R49</f>
+        <f>IF(ISBLANK(Instructions!R49),"",Instructions!R49)</f>
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <f>IF(ISBLANK(Instructions!S49),"",Instructions!S49)</f>
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <f>Instructions!T49</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>_xlfn.CONCAT(Instructions!C50,Instructions!D50,"D",TEXT(Instructions!B50,"YY"),TEXT(Instructions!B50,"MM"),"-",TEXT(Instructions!F50,"00"))</f>
         <v>LXND2505-22</v>
@@ -9330,28 +9849,36 @@
         <f>Instructions!M50</f>
         <v>NULL</v>
       </c>
-      <c r="J43" t="str">
-        <f>Instructions!N50</f>
+      <c r="J43" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N50),"",Instructions!N50)</f>
         <v>Proofed</v>
       </c>
       <c r="K43" s="1">
-        <f>Instructions!O50</f>
+        <f>IF(ISBLANK(Instructions!O50),"",Instructions!O50)</f>
         <v>45804</v>
       </c>
       <c r="L43" t="str">
-        <f>Instructions!P50</f>
+        <f>IF(ISBLANK(Instructions!P50),"",Instructions!P50)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M43">
-        <f>Instructions!Q50</f>
-        <v>0</v>
+      <c r="M43" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q50),"",Instructions!Q50)</f>
+        <v/>
       </c>
       <c r="N43" t="str">
-        <f>Instructions!R50</f>
+        <f>IF(ISBLANK(Instructions!R50),"",Instructions!R50)</f>
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <f>IF(ISBLANK(Instructions!S50),"",Instructions!S50)</f>
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <f>Instructions!T50</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>_xlfn.CONCAT(Instructions!C51,Instructions!D51,"D",TEXT(Instructions!B51,"YY"),TEXT(Instructions!B51,"MM"),"-",TEXT(Instructions!F51,"00"))</f>
         <v>LXND2505-23</v>
@@ -9388,28 +9915,36 @@
         <f>Instructions!M51</f>
         <v>NULL</v>
       </c>
-      <c r="J44" t="str">
-        <f>Instructions!N51</f>
+      <c r="J44" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N51),"",Instructions!N51)</f>
         <v>Proofed</v>
       </c>
       <c r="K44" s="1">
-        <f>Instructions!O51</f>
+        <f>IF(ISBLANK(Instructions!O51),"",Instructions!O51)</f>
         <v>45804</v>
       </c>
       <c r="L44" t="str">
-        <f>Instructions!P51</f>
+        <f>IF(ISBLANK(Instructions!P51),"",Instructions!P51)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M44">
-        <f>Instructions!Q51</f>
-        <v>0</v>
+      <c r="M44" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q51),"",Instructions!Q51)</f>
+        <v/>
       </c>
       <c r="N44" t="str">
-        <f>Instructions!R51</f>
+        <f>IF(ISBLANK(Instructions!R51),"",Instructions!R51)</f>
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <f>IF(ISBLANK(Instructions!S51),"",Instructions!S51)</f>
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <f>Instructions!T51</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>_xlfn.CONCAT(Instructions!C52,Instructions!D52,"D",TEXT(Instructions!B52,"YY"),TEXT(Instructions!B52,"MM"),"-",TEXT(Instructions!F52,"00"))</f>
         <v>LXND2505-24</v>
@@ -9446,28 +9981,36 @@
         <f>Instructions!M52</f>
         <v>NULL</v>
       </c>
-      <c r="J45" t="str">
-        <f>Instructions!N52</f>
+      <c r="J45" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N52),"",Instructions!N52)</f>
         <v>Proofed</v>
       </c>
       <c r="K45" s="1">
-        <f>Instructions!O52</f>
+        <f>IF(ISBLANK(Instructions!O52),"",Instructions!O52)</f>
         <v>45804</v>
       </c>
       <c r="L45" t="str">
-        <f>Instructions!P52</f>
+        <f>IF(ISBLANK(Instructions!P52),"",Instructions!P52)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M45">
-        <f>Instructions!Q52</f>
-        <v>0</v>
+      <c r="M45" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q52),"",Instructions!Q52)</f>
+        <v/>
       </c>
       <c r="N45" t="str">
-        <f>Instructions!R52</f>
+        <f>IF(ISBLANK(Instructions!R52),"",Instructions!R52)</f>
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <f>IF(ISBLANK(Instructions!S52),"",Instructions!S52)</f>
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <f>Instructions!T52</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>_xlfn.CONCAT(Instructions!C53,Instructions!D53,"D",TEXT(Instructions!B53,"YY"),TEXT(Instructions!B53,"MM"),"-",TEXT(Instructions!F53,"00"))</f>
         <v>LXND2505-25</v>
@@ -9504,28 +10047,36 @@
         <f>Instructions!M53</f>
         <v>NULL</v>
       </c>
-      <c r="J46" t="str">
-        <f>Instructions!N53</f>
+      <c r="J46" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N53),"",Instructions!N53)</f>
         <v>Proofed</v>
       </c>
       <c r="K46" s="1">
-        <f>Instructions!O53</f>
+        <f>IF(ISBLANK(Instructions!O53),"",Instructions!O53)</f>
         <v>45804</v>
       </c>
       <c r="L46" t="str">
-        <f>Instructions!P53</f>
+        <f>IF(ISBLANK(Instructions!P53),"",Instructions!P53)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M46">
-        <f>Instructions!Q53</f>
-        <v>0</v>
+      <c r="M46" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q53),"",Instructions!Q53)</f>
+        <v/>
       </c>
       <c r="N46" t="str">
-        <f>Instructions!R53</f>
+        <f>IF(ISBLANK(Instructions!R53),"",Instructions!R53)</f>
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <f>IF(ISBLANK(Instructions!S53),"",Instructions!S53)</f>
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <f>Instructions!T53</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>_xlfn.CONCAT(Instructions!C54,Instructions!D54,"D",TEXT(Instructions!B54,"YY"),TEXT(Instructions!B54,"MM"),"-",TEXT(Instructions!F54,"00"))</f>
         <v>LXND2505-26</v>
@@ -9562,28 +10113,36 @@
         <f>Instructions!M54</f>
         <v>NULL</v>
       </c>
-      <c r="J47" t="str">
-        <f>Instructions!N54</f>
+      <c r="J47" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N54),"",Instructions!N54)</f>
         <v>Proofed</v>
       </c>
       <c r="K47" s="1">
-        <f>Instructions!O54</f>
+        <f>IF(ISBLANK(Instructions!O54),"",Instructions!O54)</f>
         <v>45804</v>
       </c>
       <c r="L47" t="str">
-        <f>Instructions!P54</f>
+        <f>IF(ISBLANK(Instructions!P54),"",Instructions!P54)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M47">
-        <f>Instructions!Q54</f>
-        <v>0</v>
+      <c r="M47" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q54),"",Instructions!Q54)</f>
+        <v/>
       </c>
       <c r="N47" t="str">
-        <f>Instructions!R54</f>
+        <f>IF(ISBLANK(Instructions!R54),"",Instructions!R54)</f>
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <f>IF(ISBLANK(Instructions!S54),"",Instructions!S54)</f>
+        <v/>
+      </c>
+      <c r="P47" t="str">
+        <f>Instructions!T54</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT(Instructions!C55,Instructions!D55,"D",TEXT(Instructions!B55,"YY"),TEXT(Instructions!B55,"MM"),"-",TEXT(Instructions!F55,"00"))</f>
         <v>LXND2505-27</v>
@@ -9620,28 +10179,36 @@
         <f>Instructions!M55</f>
         <v>NULL</v>
       </c>
-      <c r="J48" t="str">
-        <f>Instructions!N55</f>
+      <c r="J48" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N55),"",Instructions!N55)</f>
         <v>Proofed</v>
       </c>
       <c r="K48" s="1">
-        <f>Instructions!O55</f>
+        <f>IF(ISBLANK(Instructions!O55),"",Instructions!O55)</f>
         <v>45804</v>
       </c>
       <c r="L48" t="str">
-        <f>Instructions!P55</f>
+        <f>IF(ISBLANK(Instructions!P55),"",Instructions!P55)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M48">
-        <f>Instructions!Q55</f>
-        <v>0</v>
+      <c r="M48" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q55),"",Instructions!Q55)</f>
+        <v/>
       </c>
       <c r="N48" t="str">
-        <f>Instructions!R55</f>
+        <f>IF(ISBLANK(Instructions!R55),"",Instructions!R55)</f>
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <f>IF(ISBLANK(Instructions!S55),"",Instructions!S55)</f>
+        <v/>
+      </c>
+      <c r="P48" t="str">
+        <f>Instructions!T55</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT(Instructions!C56,Instructions!D56,"D",TEXT(Instructions!B56,"YY"),TEXT(Instructions!B56,"MM"),"-",TEXT(Instructions!F56,"00"))</f>
         <v>LXND2505-28</v>
@@ -9678,28 +10245,36 @@
         <f>Instructions!M56</f>
         <v>NULL</v>
       </c>
-      <c r="J49" t="str">
-        <f>Instructions!N56</f>
+      <c r="J49" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N56),"",Instructions!N56)</f>
         <v>Proofed</v>
       </c>
       <c r="K49" s="1">
-        <f>Instructions!O56</f>
+        <f>IF(ISBLANK(Instructions!O56),"",Instructions!O56)</f>
         <v>45804</v>
       </c>
       <c r="L49" t="str">
-        <f>Instructions!P56</f>
+        <f>IF(ISBLANK(Instructions!P56),"",Instructions!P56)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M49">
-        <f>Instructions!Q56</f>
-        <v>0</v>
+      <c r="M49" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q56),"",Instructions!Q56)</f>
+        <v/>
       </c>
       <c r="N49" t="str">
-        <f>Instructions!R56</f>
+        <f>IF(ISBLANK(Instructions!R56),"",Instructions!R56)</f>
+        <v/>
+      </c>
+      <c r="O49" t="str">
+        <f>IF(ISBLANK(Instructions!S56),"",Instructions!S56)</f>
+        <v/>
+      </c>
+      <c r="P49" t="str">
+        <f>Instructions!T56</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>_xlfn.CONCAT(Instructions!C57,Instructions!D57,"D",TEXT(Instructions!B57,"YY"),TEXT(Instructions!B57,"MM"),"-",TEXT(Instructions!F57,"00"))</f>
         <v>LXND2505-29</v>
@@ -9736,28 +10311,36 @@
         <f>Instructions!M57</f>
         <v>NULL</v>
       </c>
-      <c r="J50" t="str">
-        <f>Instructions!N57</f>
+      <c r="J50" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N57),"",Instructions!N57)</f>
         <v>Proofed</v>
       </c>
       <c r="K50" s="1">
-        <f>Instructions!O57</f>
+        <f>IF(ISBLANK(Instructions!O57),"",Instructions!O57)</f>
         <v>45804</v>
       </c>
       <c r="L50" t="str">
-        <f>Instructions!P57</f>
+        <f>IF(ISBLANK(Instructions!P57),"",Instructions!P57)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M50">
-        <f>Instructions!Q57</f>
-        <v>0</v>
+      <c r="M50" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q57),"",Instructions!Q57)</f>
+        <v/>
       </c>
       <c r="N50" t="str">
-        <f>Instructions!R57</f>
+        <f>IF(ISBLANK(Instructions!R57),"",Instructions!R57)</f>
+        <v/>
+      </c>
+      <c r="O50" t="str">
+        <f>IF(ISBLANK(Instructions!S57),"",Instructions!S57)</f>
+        <v/>
+      </c>
+      <c r="P50" t="str">
+        <f>Instructions!T57</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>_xlfn.CONCAT(Instructions!C58,Instructions!D58,"D",TEXT(Instructions!B58,"YY"),TEXT(Instructions!B58,"MM"),"-",TEXT(Instructions!F58,"00"))</f>
         <v>LXND2505-30</v>
@@ -9794,28 +10377,36 @@
         <f>Instructions!M58</f>
         <v>NULL</v>
       </c>
-      <c r="J51" t="str">
-        <f>Instructions!N58</f>
+      <c r="J51" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N58),"",Instructions!N58)</f>
         <v>Proofed</v>
       </c>
       <c r="K51" s="1">
-        <f>Instructions!O58</f>
+        <f>IF(ISBLANK(Instructions!O58),"",Instructions!O58)</f>
         <v>45804</v>
       </c>
       <c r="L51" t="str">
-        <f>Instructions!P58</f>
+        <f>IF(ISBLANK(Instructions!P58),"",Instructions!P58)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M51">
-        <f>Instructions!Q58</f>
-        <v>0</v>
+      <c r="M51" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q58),"",Instructions!Q58)</f>
+        <v/>
       </c>
       <c r="N51" t="str">
-        <f>Instructions!R58</f>
+        <f>IF(ISBLANK(Instructions!R58),"",Instructions!R58)</f>
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <f>IF(ISBLANK(Instructions!S58),"",Instructions!S58)</f>
+        <v/>
+      </c>
+      <c r="P51" t="str">
+        <f>Instructions!T58</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>_xlfn.CONCAT(Instructions!C59,Instructions!D59,"D",TEXT(Instructions!B59,"YY"),TEXT(Instructions!B59,"MM"),"-",TEXT(Instructions!F59,"00"))</f>
         <v>LXND2505-31</v>
@@ -9852,28 +10443,36 @@
         <f>Instructions!M59</f>
         <v>NULL</v>
       </c>
-      <c r="J52" t="str">
-        <f>Instructions!N59</f>
+      <c r="J52" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N59),"",Instructions!N59)</f>
         <v>Proofed</v>
       </c>
       <c r="K52" s="1">
-        <f>Instructions!O59</f>
+        <f>IF(ISBLANK(Instructions!O59),"",Instructions!O59)</f>
         <v>45804</v>
       </c>
       <c r="L52" t="str">
-        <f>Instructions!P59</f>
+        <f>IF(ISBLANK(Instructions!P59),"",Instructions!P59)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M52">
-        <f>Instructions!Q59</f>
-        <v>0</v>
+      <c r="M52" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q59),"",Instructions!Q59)</f>
+        <v/>
       </c>
       <c r="N52" t="str">
-        <f>Instructions!R59</f>
+        <f>IF(ISBLANK(Instructions!R59),"",Instructions!R59)</f>
+        <v/>
+      </c>
+      <c r="O52" t="str">
+        <f>IF(ISBLANK(Instructions!S59),"",Instructions!S59)</f>
+        <v/>
+      </c>
+      <c r="P52" t="str">
+        <f>Instructions!T59</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT(Instructions!C60,Instructions!D60,"D",TEXT(Instructions!B60,"YY"),TEXT(Instructions!B60,"MM"),"-",TEXT(Instructions!F60,"00"))</f>
         <v>LXND2505-32</v>
@@ -9910,28 +10509,36 @@
         <f>Instructions!M60</f>
         <v>NULL</v>
       </c>
-      <c r="J53" t="str">
-        <f>Instructions!N60</f>
+      <c r="J53" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N60),"",Instructions!N60)</f>
         <v>Proofed</v>
       </c>
       <c r="K53" s="1">
-        <f>Instructions!O60</f>
+        <f>IF(ISBLANK(Instructions!O60),"",Instructions!O60)</f>
         <v>45804</v>
       </c>
       <c r="L53" t="str">
-        <f>Instructions!P60</f>
+        <f>IF(ISBLANK(Instructions!P60),"",Instructions!P60)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M53">
-        <f>Instructions!Q60</f>
-        <v>0</v>
+      <c r="M53" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q60),"",Instructions!Q60)</f>
+        <v/>
       </c>
       <c r="N53" t="str">
-        <f>Instructions!R60</f>
+        <f>IF(ISBLANK(Instructions!R60),"",Instructions!R60)</f>
+        <v/>
+      </c>
+      <c r="O53" t="str">
+        <f>IF(ISBLANK(Instructions!S60),"",Instructions!S60)</f>
+        <v/>
+      </c>
+      <c r="P53" t="str">
+        <f>Instructions!T60</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT(Instructions!C61,Instructions!D61,"D",TEXT(Instructions!B61,"YY"),TEXT(Instructions!B61,"MM"),"-",TEXT(Instructions!F61,"00"))</f>
         <v>LXND2505-33</v>
@@ -9968,28 +10575,36 @@
         <f>Instructions!M61</f>
         <v>NULL</v>
       </c>
-      <c r="J54" t="str">
-        <f>Instructions!N61</f>
+      <c r="J54" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N61),"",Instructions!N61)</f>
         <v>Proofed</v>
       </c>
       <c r="K54" s="1">
-        <f>Instructions!O61</f>
+        <f>IF(ISBLANK(Instructions!O61),"",Instructions!O61)</f>
         <v>45804</v>
       </c>
       <c r="L54" t="str">
-        <f>Instructions!P61</f>
+        <f>IF(ISBLANK(Instructions!P61),"",Instructions!P61)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M54">
-        <f>Instructions!Q61</f>
-        <v>0</v>
+      <c r="M54" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q61),"",Instructions!Q61)</f>
+        <v/>
       </c>
       <c r="N54" t="str">
-        <f>Instructions!R61</f>
+        <f>IF(ISBLANK(Instructions!R61),"",Instructions!R61)</f>
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <f>IF(ISBLANK(Instructions!S61),"",Instructions!S61)</f>
+        <v/>
+      </c>
+      <c r="P54" t="str">
+        <f>Instructions!T61</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>_xlfn.CONCAT(Instructions!C62,Instructions!D62,"D",TEXT(Instructions!B62,"YY"),TEXT(Instructions!B62,"MM"),"-",TEXT(Instructions!F62,"00"))</f>
         <v>LXND2505-34</v>
@@ -10026,28 +10641,36 @@
         <f>Instructions!M62</f>
         <v>NULL</v>
       </c>
-      <c r="J55" t="str">
-        <f>Instructions!N62</f>
+      <c r="J55" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N62),"",Instructions!N62)</f>
         <v>Proofed</v>
       </c>
       <c r="K55" s="1">
-        <f>Instructions!O62</f>
+        <f>IF(ISBLANK(Instructions!O62),"",Instructions!O62)</f>
         <v>45804</v>
       </c>
       <c r="L55" t="str">
-        <f>Instructions!P62</f>
+        <f>IF(ISBLANK(Instructions!P62),"",Instructions!P62)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M55">
-        <f>Instructions!Q62</f>
-        <v>0</v>
+      <c r="M55" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q62),"",Instructions!Q62)</f>
+        <v/>
       </c>
       <c r="N55" t="str">
-        <f>Instructions!R62</f>
+        <f>IF(ISBLANK(Instructions!R62),"",Instructions!R62)</f>
+        <v/>
+      </c>
+      <c r="O55" t="str">
+        <f>IF(ISBLANK(Instructions!S62),"",Instructions!S62)</f>
+        <v/>
+      </c>
+      <c r="P55" t="str">
+        <f>Instructions!T62</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>_xlfn.CONCAT(Instructions!C63,Instructions!D63,"D",TEXT(Instructions!B63,"YY"),TEXT(Instructions!B63,"MM"),"-",TEXT(Instructions!F63,"00"))</f>
         <v>LXND2505-35</v>
@@ -10084,28 +10707,36 @@
         <f>Instructions!M63</f>
         <v>NULL</v>
       </c>
-      <c r="J56" t="str">
-        <f>Instructions!N63</f>
+      <c r="J56" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N63),"",Instructions!N63)</f>
         <v>Proofed</v>
       </c>
       <c r="K56" s="1">
-        <f>Instructions!O63</f>
+        <f>IF(ISBLANK(Instructions!O63),"",Instructions!O63)</f>
         <v>45804</v>
       </c>
       <c r="L56" t="str">
-        <f>Instructions!P63</f>
+        <f>IF(ISBLANK(Instructions!P63),"",Instructions!P63)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M56" t="str">
-        <f>Instructions!Q63</f>
+      <c r="M56" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q63),"",Instructions!Q63)</f>
+        <v/>
+      </c>
+      <c r="N56" t="str">
+        <f>IF(ISBLANK(Instructions!R63),"",Instructions!R63)</f>
+        <v/>
+      </c>
+      <c r="O56" t="str">
+        <f>IF(ISBLANK(Instructions!S63),"",Instructions!S63)</f>
         <v>pea crab 0.11g</v>
       </c>
-      <c r="N56" t="str">
-        <f>Instructions!R63</f>
+      <c r="P56" t="str">
+        <f>Instructions!T63</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>_xlfn.CONCAT(Instructions!C64,Instructions!D64,"D",TEXT(Instructions!B64,"YY"),TEXT(Instructions!B64,"MM"),"-",TEXT(Instructions!F64,"00"))</f>
         <v>LXND2505-36</v>
@@ -10142,28 +10773,36 @@
         <f>Instructions!M64</f>
         <v>NULL</v>
       </c>
-      <c r="J57" t="str">
-        <f>Instructions!N64</f>
+      <c r="J57" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N64),"",Instructions!N64)</f>
         <v>Proofed</v>
       </c>
       <c r="K57" s="1">
-        <f>Instructions!O64</f>
+        <f>IF(ISBLANK(Instructions!O64),"",Instructions!O64)</f>
         <v>45804</v>
       </c>
       <c r="L57" t="str">
-        <f>Instructions!P64</f>
+        <f>IF(ISBLANK(Instructions!P64),"",Instructions!P64)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M57">
-        <f>Instructions!Q64</f>
-        <v>0</v>
+      <c r="M57" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q64),"",Instructions!Q64)</f>
+        <v/>
       </c>
       <c r="N57" t="str">
-        <f>Instructions!R64</f>
+        <f>IF(ISBLANK(Instructions!R64),"",Instructions!R64)</f>
+        <v/>
+      </c>
+      <c r="O57" t="str">
+        <f>IF(ISBLANK(Instructions!S64),"",Instructions!S64)</f>
+        <v/>
+      </c>
+      <c r="P57" t="str">
+        <f>Instructions!T64</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT(Instructions!C65,Instructions!D65,"D",TEXT(Instructions!B65,"YY"),TEXT(Instructions!B65,"MM"),"-",TEXT(Instructions!F65,"00"))</f>
         <v>LXND2505-37</v>
@@ -10200,28 +10839,36 @@
         <f>Instructions!M65</f>
         <v>NULL</v>
       </c>
-      <c r="J58" t="str">
-        <f>Instructions!N65</f>
+      <c r="J58" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N65),"",Instructions!N65)</f>
         <v>Proofed</v>
       </c>
       <c r="K58" s="1">
-        <f>Instructions!O65</f>
+        <f>IF(ISBLANK(Instructions!O65),"",Instructions!O65)</f>
         <v>45804</v>
       </c>
       <c r="L58" t="str">
-        <f>Instructions!P65</f>
+        <f>IF(ISBLANK(Instructions!P65),"",Instructions!P65)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M58">
-        <f>Instructions!Q65</f>
-        <v>0</v>
+      <c r="M58" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q65),"",Instructions!Q65)</f>
+        <v/>
       </c>
       <c r="N58" t="str">
-        <f>Instructions!R65</f>
+        <f>IF(ISBLANK(Instructions!R65),"",Instructions!R65)</f>
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <f>IF(ISBLANK(Instructions!S65),"",Instructions!S65)</f>
+        <v/>
+      </c>
+      <c r="P58" t="str">
+        <f>Instructions!T65</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT(Instructions!C66,Instructions!D66,"D",TEXT(Instructions!B66,"YY"),TEXT(Instructions!B66,"MM"),"-",TEXT(Instructions!F66,"00"))</f>
         <v>LXND2505-38</v>
@@ -10258,28 +10905,36 @@
         <f>Instructions!M66</f>
         <v>NULL</v>
       </c>
-      <c r="J59" t="str">
-        <f>Instructions!N66</f>
+      <c r="J59" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N66),"",Instructions!N66)</f>
         <v>Proofed</v>
       </c>
       <c r="K59" s="1">
-        <f>Instructions!O66</f>
+        <f>IF(ISBLANK(Instructions!O66),"",Instructions!O66)</f>
         <v>45804</v>
       </c>
       <c r="L59" t="str">
-        <f>Instructions!P66</f>
+        <f>IF(ISBLANK(Instructions!P66),"",Instructions!P66)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M59">
-        <f>Instructions!Q66</f>
-        <v>0</v>
+      <c r="M59" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q66),"",Instructions!Q66)</f>
+        <v/>
       </c>
       <c r="N59" t="str">
-        <f>Instructions!R66</f>
+        <f>IF(ISBLANK(Instructions!R66),"",Instructions!R66)</f>
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <f>IF(ISBLANK(Instructions!S66),"",Instructions!S66)</f>
+        <v/>
+      </c>
+      <c r="P59" t="str">
+        <f>Instructions!T66</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>_xlfn.CONCAT(Instructions!C67,Instructions!D67,"D",TEXT(Instructions!B67,"YY"),TEXT(Instructions!B67,"MM"),"-",TEXT(Instructions!F67,"00"))</f>
         <v>LXND2505-39</v>
@@ -10316,28 +10971,36 @@
         <f>Instructions!M67</f>
         <v>NULL</v>
       </c>
-      <c r="J60" t="str">
-        <f>Instructions!N67</f>
+      <c r="J60" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N67),"",Instructions!N67)</f>
         <v>Proofed</v>
       </c>
       <c r="K60" s="1">
-        <f>Instructions!O67</f>
+        <f>IF(ISBLANK(Instructions!O67),"",Instructions!O67)</f>
         <v>45804</v>
       </c>
       <c r="L60" t="str">
-        <f>Instructions!P67</f>
+        <f>IF(ISBLANK(Instructions!P67),"",Instructions!P67)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M60" t="str">
-        <f>Instructions!Q67</f>
+      <c r="M60" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q67),"",Instructions!Q67)</f>
+        <v/>
+      </c>
+      <c r="N60" t="str">
+        <f>IF(ISBLANK(Instructions!R67),"",Instructions!R67)</f>
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <f>IF(ISBLANK(Instructions!S67),"",Instructions!S67)</f>
         <v>full body repro</v>
       </c>
-      <c r="N60" t="str">
-        <f>Instructions!R67</f>
+      <c r="P60" t="str">
+        <f>Instructions!T67</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>_xlfn.CONCAT(Instructions!C68,Instructions!D68,"D",TEXT(Instructions!B68,"YY"),TEXT(Instructions!B68,"MM"),"-",TEXT(Instructions!F68,"00"))</f>
         <v>LXND2505-40</v>
@@ -10374,28 +11037,36 @@
         <f>Instructions!M68</f>
         <v>NULL</v>
       </c>
-      <c r="J61" t="str">
-        <f>Instructions!N68</f>
+      <c r="J61" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N68),"",Instructions!N68)</f>
         <v>Proofed</v>
       </c>
       <c r="K61" s="1">
-        <f>Instructions!O68</f>
+        <f>IF(ISBLANK(Instructions!O68),"",Instructions!O68)</f>
         <v>45804</v>
       </c>
       <c r="L61" t="str">
-        <f>Instructions!P68</f>
+        <f>IF(ISBLANK(Instructions!P68),"",Instructions!P68)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M61" t="str">
-        <f>Instructions!Q68</f>
+      <c r="M61" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q68),"",Instructions!Q68)</f>
+        <v/>
+      </c>
+      <c r="N61" t="str">
+        <f>IF(ISBLANK(Instructions!R68),"",Instructions!R68)</f>
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <f>IF(ISBLANK(Instructions!S68),"",Instructions!S68)</f>
         <v>full body repro</v>
       </c>
-      <c r="N61" t="str">
-        <f>Instructions!R68</f>
+      <c r="P61" t="str">
+        <f>Instructions!T68</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>_xlfn.CONCAT(Instructions!C69,Instructions!D69,"D",TEXT(Instructions!B69,"YY"),TEXT(Instructions!B69,"MM"),"-",TEXT(Instructions!F69,"00"))</f>
         <v>LXND2505-41</v>
@@ -10432,28 +11103,36 @@
         <f>Instructions!M69</f>
         <v>NULL</v>
       </c>
-      <c r="J62" t="str">
-        <f>Instructions!N69</f>
+      <c r="J62" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N69),"",Instructions!N69)</f>
         <v>Proofed</v>
       </c>
       <c r="K62" s="1">
-        <f>Instructions!O69</f>
+        <f>IF(ISBLANK(Instructions!O69),"",Instructions!O69)</f>
         <v>45804</v>
       </c>
       <c r="L62" t="str">
-        <f>Instructions!P69</f>
+        <f>IF(ISBLANK(Instructions!P69),"",Instructions!P69)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M62">
-        <f>Instructions!Q69</f>
-        <v>0</v>
+      <c r="M62" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q69),"",Instructions!Q69)</f>
+        <v/>
       </c>
       <c r="N62" t="str">
-        <f>Instructions!R69</f>
+        <f>IF(ISBLANK(Instructions!R69),"",Instructions!R69)</f>
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <f>IF(ISBLANK(Instructions!S69),"",Instructions!S69)</f>
+        <v/>
+      </c>
+      <c r="P62" t="str">
+        <f>Instructions!T69</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT(Instructions!C70,Instructions!D70,"D",TEXT(Instructions!B70,"YY"),TEXT(Instructions!B70,"MM"),"-",TEXT(Instructions!F70,"00"))</f>
         <v>LXND2505-42</v>
@@ -10490,28 +11169,36 @@
         <f>Instructions!M70</f>
         <v>NULL</v>
       </c>
-      <c r="J63" t="str">
-        <f>Instructions!N70</f>
+      <c r="J63" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N70),"",Instructions!N70)</f>
         <v>Proofed</v>
       </c>
       <c r="K63" s="1">
-        <f>Instructions!O70</f>
+        <f>IF(ISBLANK(Instructions!O70),"",Instructions!O70)</f>
         <v>45804</v>
       </c>
       <c r="L63" t="str">
-        <f>Instructions!P70</f>
+        <f>IF(ISBLANK(Instructions!P70),"",Instructions!P70)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M63">
-        <f>Instructions!Q70</f>
-        <v>0</v>
+      <c r="M63" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q70),"",Instructions!Q70)</f>
+        <v/>
       </c>
       <c r="N63" t="str">
-        <f>Instructions!R70</f>
+        <f>IF(ISBLANK(Instructions!R70),"",Instructions!R70)</f>
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <f>IF(ISBLANK(Instructions!S70),"",Instructions!S70)</f>
+        <v/>
+      </c>
+      <c r="P63" t="str">
+        <f>Instructions!T70</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT(Instructions!C71,Instructions!D71,"D",TEXT(Instructions!B71,"YY"),TEXT(Instructions!B71,"MM"),"-",TEXT(Instructions!F71,"00"))</f>
         <v>LXND2505-43</v>
@@ -10548,28 +11235,36 @@
         <f>Instructions!M71</f>
         <v>NULL</v>
       </c>
-      <c r="J64" t="str">
-        <f>Instructions!N71</f>
+      <c r="J64" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N71),"",Instructions!N71)</f>
         <v>Proofed</v>
       </c>
       <c r="K64" s="1">
-        <f>Instructions!O71</f>
+        <f>IF(ISBLANK(Instructions!O71),"",Instructions!O71)</f>
         <v>45804</v>
       </c>
       <c r="L64" t="str">
-        <f>Instructions!P71</f>
+        <f>IF(ISBLANK(Instructions!P71),"",Instructions!P71)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M64">
-        <f>Instructions!Q71</f>
-        <v>0</v>
+      <c r="M64" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q71),"",Instructions!Q71)</f>
+        <v/>
       </c>
       <c r="N64" t="str">
-        <f>Instructions!R71</f>
+        <f>IF(ISBLANK(Instructions!R71),"",Instructions!R71)</f>
+        <v/>
+      </c>
+      <c r="O64" t="str">
+        <f>IF(ISBLANK(Instructions!S71),"",Instructions!S71)</f>
+        <v/>
+      </c>
+      <c r="P64" t="str">
+        <f>Instructions!T71</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>_xlfn.CONCAT(Instructions!C72,Instructions!D72,"D",TEXT(Instructions!B72,"YY"),TEXT(Instructions!B72,"MM"),"-",TEXT(Instructions!F72,"00"))</f>
         <v>LXND2505-44</v>
@@ -10606,28 +11301,36 @@
         <f>Instructions!M72</f>
         <v>NULL</v>
       </c>
-      <c r="J65" t="str">
-        <f>Instructions!N72</f>
+      <c r="J65" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N72),"",Instructions!N72)</f>
         <v>Proofed</v>
       </c>
       <c r="K65" s="1">
-        <f>Instructions!O72</f>
+        <f>IF(ISBLANK(Instructions!O72),"",Instructions!O72)</f>
         <v>45804</v>
       </c>
       <c r="L65" t="str">
-        <f>Instructions!P72</f>
+        <f>IF(ISBLANK(Instructions!P72),"",Instructions!P72)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M65">
-        <f>Instructions!Q72</f>
-        <v>0</v>
+      <c r="M65" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q72),"",Instructions!Q72)</f>
+        <v/>
       </c>
       <c r="N65" t="str">
-        <f>Instructions!R72</f>
+        <f>IF(ISBLANK(Instructions!R72),"",Instructions!R72)</f>
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <f>IF(ISBLANK(Instructions!S72),"",Instructions!S72)</f>
+        <v/>
+      </c>
+      <c r="P65" t="str">
+        <f>Instructions!T72</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>_xlfn.CONCAT(Instructions!C73,Instructions!D73,"D",TEXT(Instructions!B73,"YY"),TEXT(Instructions!B73,"MM"),"-",TEXT(Instructions!F73,"00"))</f>
         <v>LXND2505-45</v>
@@ -10664,28 +11367,36 @@
         <f>Instructions!M73</f>
         <v>NULL</v>
       </c>
-      <c r="J66" t="str">
-        <f>Instructions!N73</f>
+      <c r="J66" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N73),"",Instructions!N73)</f>
         <v>Proofed</v>
       </c>
       <c r="K66" s="1">
-        <f>Instructions!O73</f>
+        <f>IF(ISBLANK(Instructions!O73),"",Instructions!O73)</f>
         <v>45804</v>
       </c>
       <c r="L66" t="str">
-        <f>Instructions!P73</f>
+        <f>IF(ISBLANK(Instructions!P73),"",Instructions!P73)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M66">
-        <f>Instructions!Q73</f>
-        <v>0</v>
+      <c r="M66" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q73),"",Instructions!Q73)</f>
+        <v/>
       </c>
       <c r="N66" t="str">
-        <f>Instructions!R73</f>
+        <f>IF(ISBLANK(Instructions!R73),"",Instructions!R73)</f>
+        <v/>
+      </c>
+      <c r="O66" t="str">
+        <f>IF(ISBLANK(Instructions!S73),"",Instructions!S73)</f>
+        <v/>
+      </c>
+      <c r="P66" t="str">
+        <f>Instructions!T73</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>_xlfn.CONCAT(Instructions!C74,Instructions!D74,"D",TEXT(Instructions!B74,"YY"),TEXT(Instructions!B74,"MM"),"-",TEXT(Instructions!F74,"00"))</f>
         <v>LXND2505-46</v>
@@ -10722,28 +11433,36 @@
         <f>Instructions!M74</f>
         <v>NULL</v>
       </c>
-      <c r="J67" t="str">
-        <f>Instructions!N74</f>
+      <c r="J67" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N74),"",Instructions!N74)</f>
         <v>Proofed</v>
       </c>
       <c r="K67" s="1">
-        <f>Instructions!O74</f>
+        <f>IF(ISBLANK(Instructions!O74),"",Instructions!O74)</f>
         <v>45804</v>
       </c>
       <c r="L67" t="str">
-        <f>Instructions!P74</f>
+        <f>IF(ISBLANK(Instructions!P74),"",Instructions!P74)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M67">
-        <f>Instructions!Q74</f>
-        <v>0</v>
+      <c r="M67" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q74),"",Instructions!Q74)</f>
+        <v/>
       </c>
       <c r="N67" t="str">
-        <f>Instructions!R74</f>
+        <f>IF(ISBLANK(Instructions!R74),"",Instructions!R74)</f>
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <f>IF(ISBLANK(Instructions!S74),"",Instructions!S74)</f>
+        <v/>
+      </c>
+      <c r="P67" t="str">
+        <f>Instructions!T74</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT(Instructions!C75,Instructions!D75,"D",TEXT(Instructions!B75,"YY"),TEXT(Instructions!B75,"MM"),"-",TEXT(Instructions!F75,"00"))</f>
         <v>LXND2505-47</v>
@@ -10780,28 +11499,36 @@
         <f>Instructions!M75</f>
         <v>NULL</v>
       </c>
-      <c r="J68" t="str">
-        <f>Instructions!N75</f>
+      <c r="J68" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N75),"",Instructions!N75)</f>
         <v>Proofed</v>
       </c>
       <c r="K68" s="1">
-        <f>Instructions!O75</f>
+        <f>IF(ISBLANK(Instructions!O75),"",Instructions!O75)</f>
         <v>45804</v>
       </c>
       <c r="L68" t="str">
-        <f>Instructions!P75</f>
+        <f>IF(ISBLANK(Instructions!P75),"",Instructions!P75)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M68">
-        <f>Instructions!Q75</f>
-        <v>0</v>
+      <c r="M68" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q75),"",Instructions!Q75)</f>
+        <v/>
       </c>
       <c r="N68" t="str">
-        <f>Instructions!R75</f>
+        <f>IF(ISBLANK(Instructions!R75),"",Instructions!R75)</f>
+        <v/>
+      </c>
+      <c r="O68" t="str">
+        <f>IF(ISBLANK(Instructions!S75),"",Instructions!S75)</f>
+        <v/>
+      </c>
+      <c r="P68" t="str">
+        <f>Instructions!T75</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT(Instructions!C76,Instructions!D76,"D",TEXT(Instructions!B76,"YY"),TEXT(Instructions!B76,"MM"),"-",TEXT(Instructions!F76,"00"))</f>
         <v>LXND2505-48</v>
@@ -10838,28 +11565,36 @@
         <f>Instructions!M76</f>
         <v>NULL</v>
       </c>
-      <c r="J69" t="str">
-        <f>Instructions!N76</f>
+      <c r="J69" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N76),"",Instructions!N76)</f>
         <v>Proofed</v>
       </c>
       <c r="K69" s="1">
-        <f>Instructions!O76</f>
+        <f>IF(ISBLANK(Instructions!O76),"",Instructions!O76)</f>
         <v>45804</v>
       </c>
       <c r="L69" t="str">
-        <f>Instructions!P76</f>
+        <f>IF(ISBLANK(Instructions!P76),"",Instructions!P76)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M69">
-        <f>Instructions!Q76</f>
-        <v>0</v>
+      <c r="M69" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q76),"",Instructions!Q76)</f>
+        <v/>
       </c>
       <c r="N69" t="str">
-        <f>Instructions!R76</f>
+        <f>IF(ISBLANK(Instructions!R76),"",Instructions!R76)</f>
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <f>IF(ISBLANK(Instructions!S76),"",Instructions!S76)</f>
+        <v/>
+      </c>
+      <c r="P69" t="str">
+        <f>Instructions!T76</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>_xlfn.CONCAT(Instructions!C77,Instructions!D77,"D",TEXT(Instructions!B77,"YY"),TEXT(Instructions!B77,"MM"),"-",TEXT(Instructions!F77,"00"))</f>
         <v>LXND2505-49</v>
@@ -10896,28 +11631,36 @@
         <f>Instructions!M77</f>
         <v>NULL</v>
       </c>
-      <c r="J70" t="str">
-        <f>Instructions!N77</f>
+      <c r="J70" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N77),"",Instructions!N77)</f>
         <v>Proofed</v>
       </c>
       <c r="K70" s="1">
-        <f>Instructions!O77</f>
+        <f>IF(ISBLANK(Instructions!O77),"",Instructions!O77)</f>
         <v>45804</v>
       </c>
       <c r="L70" t="str">
-        <f>Instructions!P77</f>
+        <f>IF(ISBLANK(Instructions!P77),"",Instructions!P77)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M70">
-        <f>Instructions!Q77</f>
-        <v>0</v>
+      <c r="M70" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q77),"",Instructions!Q77)</f>
+        <v/>
       </c>
       <c r="N70" t="str">
-        <f>Instructions!R77</f>
+        <f>IF(ISBLANK(Instructions!R77),"",Instructions!R77)</f>
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <f>IF(ISBLANK(Instructions!S77),"",Instructions!S77)</f>
+        <v/>
+      </c>
+      <c r="P70" t="str">
+        <f>Instructions!T77</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>_xlfn.CONCAT(Instructions!C78,Instructions!D78,"D",TEXT(Instructions!B78,"YY"),TEXT(Instructions!B78,"MM"),"-",TEXT(Instructions!F78,"00"))</f>
         <v>LXND2505-50</v>
@@ -10954,28 +11697,36 @@
         <f>Instructions!M78</f>
         <v>NULL</v>
       </c>
-      <c r="J71" t="str">
-        <f>Instructions!N78</f>
+      <c r="J71" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N78),"",Instructions!N78)</f>
         <v>Proofed</v>
       </c>
       <c r="K71" s="1">
-        <f>Instructions!O78</f>
+        <f>IF(ISBLANK(Instructions!O78),"",Instructions!O78)</f>
         <v>45804</v>
       </c>
       <c r="L71" t="str">
-        <f>Instructions!P78</f>
+        <f>IF(ISBLANK(Instructions!P78),"",Instructions!P78)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M71">
-        <f>Instructions!Q78</f>
-        <v>0</v>
+      <c r="M71" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q78),"",Instructions!Q78)</f>
+        <v/>
       </c>
       <c r="N71" t="str">
-        <f>Instructions!R78</f>
+        <f>IF(ISBLANK(Instructions!R78),"",Instructions!R78)</f>
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <f>IF(ISBLANK(Instructions!S78),"",Instructions!S78)</f>
+        <v/>
+      </c>
+      <c r="P71" t="str">
+        <f>Instructions!T78</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>_xlfn.CONCAT(Instructions!C79,Instructions!D79,"D",TEXT(Instructions!B79,"YY"),TEXT(Instructions!B79,"MM"),"-",TEXT(Instructions!F79,"00"))</f>
         <v>LXND2505-51</v>
@@ -11012,28 +11763,36 @@
         <f>Instructions!M79</f>
         <v>NULL</v>
       </c>
-      <c r="J72" t="str">
-        <f>Instructions!N79</f>
+      <c r="J72" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N79),"",Instructions!N79)</f>
         <v>Proofed</v>
       </c>
       <c r="K72" s="1">
-        <f>Instructions!O79</f>
+        <f>IF(ISBLANK(Instructions!O79),"",Instructions!O79)</f>
         <v>45804</v>
       </c>
       <c r="L72" t="str">
-        <f>Instructions!P79</f>
+        <f>IF(ISBLANK(Instructions!P79),"",Instructions!P79)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M72" t="str">
-        <f>Instructions!Q79</f>
+      <c r="M72" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q79),"",Instructions!Q79)</f>
+        <v/>
+      </c>
+      <c r="N72" t="str">
+        <f>IF(ISBLANK(Instructions!R79),"",Instructions!R79)</f>
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <f>IF(ISBLANK(Instructions!S79),"",Instructions!S79)</f>
         <v>full body repro</v>
       </c>
-      <c r="N72" t="str">
-        <f>Instructions!R79</f>
+      <c r="P72" t="str">
+        <f>Instructions!T79</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>_xlfn.CONCAT(Instructions!C80,Instructions!D80,"D",TEXT(Instructions!B80,"YY"),TEXT(Instructions!B80,"MM"),"-",TEXT(Instructions!F80,"00"))</f>
         <v>LXND2505-52</v>
@@ -11070,28 +11829,36 @@
         <f>Instructions!M80</f>
         <v>NULL</v>
       </c>
-      <c r="J73" t="str">
-        <f>Instructions!N80</f>
+      <c r="J73" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N80),"",Instructions!N80)</f>
         <v>Proofed</v>
       </c>
       <c r="K73" s="1">
-        <f>Instructions!O80</f>
+        <f>IF(ISBLANK(Instructions!O80),"",Instructions!O80)</f>
         <v>45804</v>
       </c>
       <c r="L73" t="str">
-        <f>Instructions!P80</f>
+        <f>IF(ISBLANK(Instructions!P80),"",Instructions!P80)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M73" t="str">
-        <f>Instructions!Q80</f>
+      <c r="M73" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q80),"",Instructions!Q80)</f>
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <f>IF(ISBLANK(Instructions!R80),"",Instructions!R80)</f>
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <f>IF(ISBLANK(Instructions!S80),"",Instructions!S80)</f>
         <v>full body repro</v>
       </c>
-      <c r="N73" t="str">
-        <f>Instructions!R80</f>
+      <c r="P73" t="str">
+        <f>Instructions!T80</f>
         <v>Added via SMSS</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>_xlfn.CONCAT(Instructions!C81,Instructions!D81,"D",TEXT(Instructions!B81,"YY"),TEXT(Instructions!B81,"MM"),"-",TEXT(Instructions!F81,"00"))</f>
         <v>LXND2505-53</v>
@@ -11128,24 +11895,32 @@
         <f>Instructions!M81</f>
         <v>NULL</v>
       </c>
-      <c r="J74" t="str">
-        <f>Instructions!N81</f>
+      <c r="J74" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!N81),"",Instructions!N81)</f>
         <v>Proofed</v>
       </c>
       <c r="K74" s="1">
-        <f>Instructions!O81</f>
+        <f>IF(ISBLANK(Instructions!O81),"",Instructions!O81)</f>
         <v>45804</v>
       </c>
       <c r="L74" t="str">
-        <f>Instructions!P81</f>
+        <f>IF(ISBLANK(Instructions!P81),"",Instructions!P81)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="M74" t="str">
-        <f>Instructions!Q81</f>
+      <c r="M74" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q81),"",Instructions!Q81)</f>
+        <v/>
+      </c>
+      <c r="N74" t="str">
+        <f>IF(ISBLANK(Instructions!R81),"",Instructions!R81)</f>
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <f>IF(ISBLANK(Instructions!S81),"",Instructions!S81)</f>
         <v>full body repro</v>
       </c>
-      <c r="N74" t="str">
-        <f>Instructions!R81</f>
+      <c r="P74" t="str">
+        <f>Instructions!T81</f>
         <v>Added via SMSS</v>
       </c>
     </row>
